--- a/storage/excel/summary8.xlsx
+++ b/storage/excel/summary8.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17830"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web\survey\storage\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp_php7\htdocs\survey\storage\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="8.1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="215">
   <si>
     <t>บทที่ 8 ข้อมูลด้านสังคมและเศรษฐกิจ</t>
   </si>
@@ -187,45 +187,30 @@
     <t>โสด</t>
   </si>
   <si>
-    <t>น้อยกว่า 20 ปี</t>
-  </si>
-  <si>
     <t>หญิง</t>
   </si>
   <si>
     <t>สมรส</t>
   </si>
   <si>
-    <t>21 - 30 ปี</t>
-  </si>
-  <si>
     <t xml:space="preserve">   - ชาย</t>
   </si>
   <si>
     <t>หม้าย</t>
   </si>
   <si>
-    <t>31 - 40 ปี</t>
-  </si>
-  <si>
     <t xml:space="preserve">   - หญิง</t>
   </si>
   <si>
     <t>หย่าร้าง</t>
   </si>
   <si>
-    <t>41 - 50 ปี</t>
-  </si>
-  <si>
     <t>มีรายได้</t>
   </si>
   <si>
     <t>แยกกันอยู่</t>
   </si>
   <si>
-    <t>51 - 60 ปี</t>
-  </si>
-  <si>
     <t>มากกว่า 60 ปี</t>
   </si>
   <si>
@@ -671,13 +656,25 @@
   </si>
   <si>
     <t>no_ti62_ch63_o53_nu64, no_ti62_ch63_o54_nu64, no_ti62_ch63_o55_nu64, no_ti62_ch63_o56_nu64, no_ti62_ch63_o57_nu64, no_ti62_ch63_o58_nu64, no_ti62_ch63_o59_nu64, no_ti62_ch63_o60_nu64, no_ti62_ch63_o61_nu64, no_ti62_ch63_o62_nu64, no_ti62_ch63_o63_nu64, no_ti62_ch63_o64_nu64, no_ti62_ch63_o65_nu64, no_ti62_ch63_o1_nu64</t>
+  </si>
+  <si>
+    <t>น้อยกว่า 17 ปี</t>
+  </si>
+  <si>
+    <t>18 ถึง 25 ปี</t>
+  </si>
+  <si>
+    <t>26 ถึง 49 ปี</t>
+  </si>
+  <si>
+    <t>50 ถึง 60 ปี</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -701,6 +698,12 @@
       <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="TH SarabunPSK"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -873,7 +876,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -995,8 +998,14 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1004,28 +1013,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1034,8 +1028,17 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1058,15 +1061,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1411,7 +1415,7 @@
       <selection activeCell="AS14" sqref="AS14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="45" bestFit="1" customWidth="1"/>
     <col min="3" max="14" width="6.75" bestFit="1" customWidth="1"/>
@@ -1423,7 +1427,7 @@
     <col min="45" max="56" width="6.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:64">
       <c r="A1" s="7"/>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -1489,7 +1493,7 @@
       <c r="BK1" s="1"/>
       <c r="BL1" s="1"/>
     </row>
-    <row r="2" spans="1:64" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:64" ht="19.5">
       <c r="A2" s="9"/>
       <c r="B2" s="13" t="s">
         <v>0</v>
@@ -1557,7 +1561,7 @@
       <c r="BK2" s="13"/>
       <c r="BL2" s="13"/>
     </row>
-    <row r="3" spans="1:64" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:64" ht="19.5">
       <c r="A3" s="9"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -1623,7 +1627,7 @@
       <c r="BK3" s="13"/>
       <c r="BL3" s="13"/>
     </row>
-    <row r="4" spans="1:64" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:64" ht="19.5">
       <c r="A4" s="9"/>
       <c r="B4" s="13" t="s">
         <v>1</v>
@@ -1691,7 +1695,7 @@
       <c r="BK4" s="13"/>
       <c r="BL4" s="13"/>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:64">
       <c r="A5" s="9"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1757,71 +1761,71 @@
       <c r="BK5" s="1"/>
       <c r="BL5" s="1"/>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:64">
       <c r="A6" s="9"/>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="65"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="72" t="s">
+      <c r="P6" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="Q6" s="72"/>
-      <c r="R6" s="72"/>
-      <c r="S6" s="72"/>
-      <c r="T6" s="72"/>
-      <c r="U6" s="72"/>
-      <c r="V6" s="72"/>
-      <c r="W6" s="72"/>
-      <c r="X6" s="72"/>
-      <c r="Y6" s="72"/>
-      <c r="Z6" s="72"/>
-      <c r="AA6" s="72"/>
-      <c r="AB6" s="72"/>
+      <c r="Q6" s="65"/>
+      <c r="R6" s="65"/>
+      <c r="S6" s="65"/>
+      <c r="T6" s="65"/>
+      <c r="U6" s="65"/>
+      <c r="V6" s="65"/>
+      <c r="W6" s="65"/>
+      <c r="X6" s="65"/>
+      <c r="Y6" s="65"/>
+      <c r="Z6" s="65"/>
+      <c r="AA6" s="65"/>
+      <c r="AB6" s="65"/>
       <c r="AC6" s="3"/>
-      <c r="AD6" s="72" t="s">
+      <c r="AD6" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="AE6" s="72"/>
-      <c r="AF6" s="72"/>
-      <c r="AG6" s="72"/>
-      <c r="AH6" s="72"/>
-      <c r="AI6" s="72"/>
-      <c r="AJ6" s="72"/>
-      <c r="AK6" s="72"/>
-      <c r="AL6" s="72"/>
-      <c r="AM6" s="72"/>
-      <c r="AN6" s="72"/>
-      <c r="AO6" s="72"/>
-      <c r="AP6" s="72"/>
+      <c r="AE6" s="65"/>
+      <c r="AF6" s="65"/>
+      <c r="AG6" s="65"/>
+      <c r="AH6" s="65"/>
+      <c r="AI6" s="65"/>
+      <c r="AJ6" s="65"/>
+      <c r="AK6" s="65"/>
+      <c r="AL6" s="65"/>
+      <c r="AM6" s="65"/>
+      <c r="AN6" s="65"/>
+      <c r="AO6" s="65"/>
+      <c r="AP6" s="65"/>
       <c r="AQ6" s="3"/>
-      <c r="AR6" s="72" t="s">
+      <c r="AR6" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="AS6" s="72"/>
-      <c r="AT6" s="72"/>
-      <c r="AU6" s="72"/>
-      <c r="AV6" s="72"/>
-      <c r="AW6" s="72"/>
-      <c r="AX6" s="72"/>
-      <c r="AY6" s="72"/>
-      <c r="AZ6" s="72"/>
-      <c r="BA6" s="72"/>
-      <c r="BB6" s="72"/>
-      <c r="BC6" s="72"/>
-      <c r="BD6" s="72"/>
+      <c r="AS6" s="65"/>
+      <c r="AT6" s="65"/>
+      <c r="AU6" s="65"/>
+      <c r="AV6" s="65"/>
+      <c r="AW6" s="65"/>
+      <c r="AX6" s="65"/>
+      <c r="AY6" s="65"/>
+      <c r="AZ6" s="65"/>
+      <c r="BA6" s="65"/>
+      <c r="BB6" s="65"/>
+      <c r="BC6" s="65"/>
+      <c r="BD6" s="65"/>
       <c r="BE6" s="3"/>
       <c r="BF6" s="3"/>
       <c r="BG6" s="1"/>
@@ -1831,71 +1835,71 @@
       <c r="BK6" s="1"/>
       <c r="BL6" s="1"/>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:64">
       <c r="A7" s="9"/>
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="65"/>
-      <c r="N7" s="65"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="65" t="s">
+      <c r="P7" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="Q7" s="65"/>
-      <c r="R7" s="65"/>
-      <c r="S7" s="65"/>
-      <c r="T7" s="65"/>
-      <c r="U7" s="65"/>
-      <c r="V7" s="65"/>
-      <c r="W7" s="65"/>
-      <c r="X7" s="65"/>
-      <c r="Y7" s="65"/>
-      <c r="Z7" s="65"/>
-      <c r="AA7" s="65"/>
-      <c r="AB7" s="65"/>
+      <c r="Q7" s="70"/>
+      <c r="R7" s="70"/>
+      <c r="S7" s="70"/>
+      <c r="T7" s="70"/>
+      <c r="U7" s="70"/>
+      <c r="V7" s="70"/>
+      <c r="W7" s="70"/>
+      <c r="X7" s="70"/>
+      <c r="Y7" s="70"/>
+      <c r="Z7" s="70"/>
+      <c r="AA7" s="70"/>
+      <c r="AB7" s="70"/>
       <c r="AC7" s="3"/>
-      <c r="AD7" s="65" t="s">
+      <c r="AD7" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="AE7" s="65"/>
-      <c r="AF7" s="65"/>
-      <c r="AG7" s="65"/>
-      <c r="AH7" s="65"/>
-      <c r="AI7" s="65"/>
-      <c r="AJ7" s="65"/>
-      <c r="AK7" s="65"/>
-      <c r="AL7" s="65"/>
-      <c r="AM7" s="65"/>
-      <c r="AN7" s="65"/>
-      <c r="AO7" s="65"/>
-      <c r="AP7" s="65"/>
+      <c r="AE7" s="70"/>
+      <c r="AF7" s="70"/>
+      <c r="AG7" s="70"/>
+      <c r="AH7" s="70"/>
+      <c r="AI7" s="70"/>
+      <c r="AJ7" s="70"/>
+      <c r="AK7" s="70"/>
+      <c r="AL7" s="70"/>
+      <c r="AM7" s="70"/>
+      <c r="AN7" s="70"/>
+      <c r="AO7" s="70"/>
+      <c r="AP7" s="70"/>
       <c r="AQ7" s="3"/>
-      <c r="AR7" s="65" t="s">
+      <c r="AR7" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="AS7" s="65"/>
-      <c r="AT7" s="65"/>
-      <c r="AU7" s="65"/>
-      <c r="AV7" s="65"/>
-      <c r="AW7" s="65"/>
-      <c r="AX7" s="65"/>
-      <c r="AY7" s="65"/>
-      <c r="AZ7" s="65"/>
-      <c r="BA7" s="65"/>
-      <c r="BB7" s="65"/>
-      <c r="BC7" s="65"/>
-      <c r="BD7" s="65"/>
+      <c r="AS7" s="70"/>
+      <c r="AT7" s="70"/>
+      <c r="AU7" s="70"/>
+      <c r="AV7" s="70"/>
+      <c r="AW7" s="70"/>
+      <c r="AX7" s="70"/>
+      <c r="AY7" s="70"/>
+      <c r="AZ7" s="70"/>
+      <c r="BA7" s="70"/>
+      <c r="BB7" s="70"/>
+      <c r="BC7" s="70"/>
+      <c r="BD7" s="70"/>
       <c r="BE7" s="3"/>
       <c r="BF7" s="3"/>
       <c r="BG7" s="1"/>
@@ -1905,87 +1909,87 @@
       <c r="BK7" s="1"/>
       <c r="BL7" s="1"/>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:64">
       <c r="A8" s="9"/>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="68" t="s">
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="71"/>
       <c r="O8" s="3"/>
-      <c r="P8" s="66" t="s">
+      <c r="P8" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="Q8" s="69" t="s">
+      <c r="Q8" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="R8" s="70"/>
-      <c r="S8" s="70"/>
-      <c r="T8" s="70"/>
-      <c r="U8" s="70"/>
-      <c r="V8" s="70"/>
-      <c r="W8" s="68" t="s">
+      <c r="R8" s="67"/>
+      <c r="S8" s="67"/>
+      <c r="T8" s="67"/>
+      <c r="U8" s="67"/>
+      <c r="V8" s="67"/>
+      <c r="W8" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="X8" s="68"/>
-      <c r="Y8" s="68"/>
-      <c r="Z8" s="68"/>
-      <c r="AA8" s="68"/>
-      <c r="AB8" s="68"/>
+      <c r="X8" s="71"/>
+      <c r="Y8" s="71"/>
+      <c r="Z8" s="71"/>
+      <c r="AA8" s="71"/>
+      <c r="AB8" s="71"/>
       <c r="AC8" s="3"/>
-      <c r="AD8" s="66" t="s">
+      <c r="AD8" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="AE8" s="69" t="s">
+      <c r="AE8" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="AF8" s="70"/>
-      <c r="AG8" s="70"/>
-      <c r="AH8" s="70"/>
-      <c r="AI8" s="70"/>
-      <c r="AJ8" s="70"/>
-      <c r="AK8" s="68" t="s">
+      <c r="AF8" s="67"/>
+      <c r="AG8" s="67"/>
+      <c r="AH8" s="67"/>
+      <c r="AI8" s="67"/>
+      <c r="AJ8" s="67"/>
+      <c r="AK8" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="AL8" s="68"/>
-      <c r="AM8" s="68"/>
-      <c r="AN8" s="68"/>
-      <c r="AO8" s="68"/>
-      <c r="AP8" s="68"/>
+      <c r="AL8" s="71"/>
+      <c r="AM8" s="71"/>
+      <c r="AN8" s="71"/>
+      <c r="AO8" s="71"/>
+      <c r="AP8" s="71"/>
       <c r="AQ8" s="3"/>
-      <c r="AR8" s="66" t="s">
+      <c r="AR8" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="AS8" s="69" t="s">
+      <c r="AS8" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="AT8" s="70"/>
-      <c r="AU8" s="70"/>
-      <c r="AV8" s="70"/>
-      <c r="AW8" s="70"/>
-      <c r="AX8" s="70"/>
-      <c r="AY8" s="68" t="s">
+      <c r="AT8" s="67"/>
+      <c r="AU8" s="67"/>
+      <c r="AV8" s="67"/>
+      <c r="AW8" s="67"/>
+      <c r="AX8" s="67"/>
+      <c r="AY8" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="AZ8" s="68"/>
-      <c r="BA8" s="68"/>
-      <c r="BB8" s="68"/>
-      <c r="BC8" s="68"/>
-      <c r="BD8" s="68"/>
+      <c r="AZ8" s="71"/>
+      <c r="BA8" s="71"/>
+      <c r="BB8" s="71"/>
+      <c r="BC8" s="71"/>
+      <c r="BD8" s="71"/>
       <c r="BE8" s="3"/>
       <c r="BF8" s="3"/>
       <c r="BG8" s="1"/>
@@ -1995,111 +1999,111 @@
       <c r="BK8" s="1"/>
       <c r="BL8" s="1"/>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:64">
       <c r="A9" s="9"/>
-      <c r="B9" s="67"/>
-      <c r="C9" s="69" t="s">
+      <c r="B9" s="69"/>
+      <c r="C9" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="70"/>
-      <c r="E9" s="69" t="s">
+      <c r="D9" s="67"/>
+      <c r="E9" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="70"/>
-      <c r="G9" s="69" t="s">
+      <c r="F9" s="67"/>
+      <c r="G9" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="71"/>
-      <c r="I9" s="68" t="s">
+      <c r="H9" s="72"/>
+      <c r="I9" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68" t="s">
+      <c r="J9" s="71"/>
+      <c r="K9" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="L9" s="68"/>
-      <c r="M9" s="68" t="s">
+      <c r="L9" s="71"/>
+      <c r="M9" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="N9" s="68"/>
+      <c r="N9" s="71"/>
       <c r="O9" s="3"/>
-      <c r="P9" s="67"/>
-      <c r="Q9" s="69" t="s">
+      <c r="P9" s="69"/>
+      <c r="Q9" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="R9" s="70"/>
-      <c r="S9" s="69" t="s">
+      <c r="R9" s="67"/>
+      <c r="S9" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="T9" s="70"/>
-      <c r="U9" s="69" t="s">
+      <c r="T9" s="67"/>
+      <c r="U9" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="V9" s="71"/>
-      <c r="W9" s="68" t="s">
+      <c r="V9" s="72"/>
+      <c r="W9" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="X9" s="68"/>
-      <c r="Y9" s="68" t="s">
+      <c r="X9" s="71"/>
+      <c r="Y9" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Z9" s="68"/>
-      <c r="AA9" s="68" t="s">
+      <c r="Z9" s="71"/>
+      <c r="AA9" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="AB9" s="68"/>
+      <c r="AB9" s="71"/>
       <c r="AC9" s="3"/>
-      <c r="AD9" s="67"/>
-      <c r="AE9" s="69" t="s">
+      <c r="AD9" s="69"/>
+      <c r="AE9" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="AF9" s="70"/>
-      <c r="AG9" s="69" t="s">
+      <c r="AF9" s="67"/>
+      <c r="AG9" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="AH9" s="70"/>
-      <c r="AI9" s="69" t="s">
+      <c r="AH9" s="67"/>
+      <c r="AI9" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="AJ9" s="71"/>
-      <c r="AK9" s="68" t="s">
+      <c r="AJ9" s="72"/>
+      <c r="AK9" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="AL9" s="68"/>
-      <c r="AM9" s="68" t="s">
+      <c r="AL9" s="71"/>
+      <c r="AM9" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="AN9" s="68"/>
-      <c r="AO9" s="68" t="s">
+      <c r="AN9" s="71"/>
+      <c r="AO9" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="AP9" s="68"/>
+      <c r="AP9" s="71"/>
       <c r="AQ9" s="3"/>
-      <c r="AR9" s="67"/>
-      <c r="AS9" s="69" t="s">
+      <c r="AR9" s="69"/>
+      <c r="AS9" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="AT9" s="70"/>
-      <c r="AU9" s="69" t="s">
+      <c r="AT9" s="67"/>
+      <c r="AU9" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="AV9" s="70"/>
-      <c r="AW9" s="69" t="s">
+      <c r="AV9" s="67"/>
+      <c r="AW9" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="AX9" s="71"/>
-      <c r="AY9" s="68" t="s">
+      <c r="AX9" s="72"/>
+      <c r="AY9" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="AZ9" s="68"/>
-      <c r="BA9" s="68" t="s">
+      <c r="AZ9" s="71"/>
+      <c r="BA9" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="BB9" s="68"/>
-      <c r="BC9" s="68" t="s">
+      <c r="BB9" s="71"/>
+      <c r="BC9" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="BD9" s="68"/>
+      <c r="BD9" s="71"/>
       <c r="BE9" s="3"/>
       <c r="BF9" s="3"/>
       <c r="BG9" s="1"/>
@@ -2109,9 +2113,9 @@
       <c r="BK9" s="1"/>
       <c r="BL9" s="1"/>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:64">
       <c r="A10" s="9"/>
-      <c r="B10" s="67"/>
+      <c r="B10" s="69"/>
       <c r="C10" s="6" t="s">
         <v>16</v>
       </c>
@@ -2149,7 +2153,7 @@
         <v>17</v>
       </c>
       <c r="O10" s="3"/>
-      <c r="P10" s="67"/>
+      <c r="P10" s="69"/>
       <c r="Q10" s="10" t="s">
         <v>16</v>
       </c>
@@ -2187,7 +2191,7 @@
         <v>17</v>
       </c>
       <c r="AC10" s="3"/>
-      <c r="AD10" s="67"/>
+      <c r="AD10" s="69"/>
       <c r="AE10" s="10" t="s">
         <v>16</v>
       </c>
@@ -2225,7 +2229,7 @@
         <v>17</v>
       </c>
       <c r="AQ10" s="3"/>
-      <c r="AR10" s="67"/>
+      <c r="AR10" s="69"/>
       <c r="AS10" s="10" t="s">
         <v>16</v>
       </c>
@@ -2271,13 +2275,13 @@
       <c r="BK10" s="1"/>
       <c r="BL10" s="1"/>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:64">
       <c r="A11" s="9"/>
       <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -2295,7 +2299,7 @@
         <v>19</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
@@ -2313,7 +2317,7 @@
         <v>20</v>
       </c>
       <c r="AE11" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
@@ -2331,7 +2335,7 @@
         <v>21</v>
       </c>
       <c r="AS11" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="AT11" s="2"/>
       <c r="AU11" s="2"/>
@@ -2353,13 +2357,13 @@
       <c r="BK11" s="1"/>
       <c r="BL11" s="1"/>
     </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:64">
       <c r="A12" s="9"/>
       <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -2377,7 +2381,7 @@
         <v>23</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
@@ -2395,7 +2399,7 @@
         <v>24</v>
       </c>
       <c r="AE12" s="52" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
@@ -2413,7 +2417,7 @@
         <v>25</v>
       </c>
       <c r="AS12" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AT12" s="2"/>
       <c r="AU12" s="2"/>
@@ -2435,13 +2439,13 @@
       <c r="BK12" s="1"/>
       <c r="BL12" s="1"/>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:64">
       <c r="A13" s="9"/>
       <c r="B13" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -2459,7 +2463,7 @@
         <v>27</v>
       </c>
       <c r="Q13" s="52" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
@@ -2477,7 +2481,7 @@
         <v>28</v>
       </c>
       <c r="AE13" s="52" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="AF13" s="2"/>
       <c r="AG13" s="2"/>
@@ -2495,7 +2499,7 @@
         <v>29</v>
       </c>
       <c r="AS13" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="AT13" s="2"/>
       <c r="AU13" s="2"/>
@@ -2517,13 +2521,13 @@
       <c r="BK13" s="1"/>
       <c r="BL13" s="1"/>
     </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:64">
       <c r="A14" s="9"/>
       <c r="B14" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -2541,7 +2545,7 @@
         <v>31</v>
       </c>
       <c r="Q14" s="52" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
@@ -2559,7 +2563,7 @@
         <v>32</v>
       </c>
       <c r="AE14" s="52" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="AF14" s="2"/>
       <c r="AG14" s="2"/>
@@ -2577,7 +2581,7 @@
         <v>33</v>
       </c>
       <c r="AS14" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="AT14" s="2"/>
       <c r="AU14" s="2"/>
@@ -2599,13 +2603,13 @@
       <c r="BK14" s="1"/>
       <c r="BL14" s="1"/>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:64">
       <c r="A15" s="9"/>
       <c r="B15" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -2623,7 +2627,7 @@
         <v>35</v>
       </c>
       <c r="Q15" s="52" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
@@ -2641,7 +2645,7 @@
         <v>33</v>
       </c>
       <c r="AE15" s="52" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="AF15" s="2"/>
       <c r="AG15" s="2"/>
@@ -2679,13 +2683,13 @@
       <c r="BK15" s="1"/>
       <c r="BL15" s="1"/>
     </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:64">
       <c r="A16" s="9"/>
       <c r="B16" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -2703,7 +2707,7 @@
         <v>23</v>
       </c>
       <c r="Q16" s="52" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
@@ -2755,13 +2759,13 @@
       <c r="BK16" s="1"/>
       <c r="BL16" s="1"/>
     </row>
-    <row r="17" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:58">
       <c r="A17" s="9"/>
       <c r="B17" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -2779,7 +2783,7 @@
         <v>27</v>
       </c>
       <c r="Q17" s="52" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
@@ -2823,7 +2827,7 @@
       <c r="BE17" s="3"/>
       <c r="BF17" s="3"/>
     </row>
-    <row r="18" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:58">
       <c r="A18" s="9"/>
       <c r="B18" s="12" t="s">
         <v>15</v>
@@ -2845,7 +2849,7 @@
         <v>31</v>
       </c>
       <c r="Q18" s="52" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
@@ -2889,7 +2893,7 @@
       <c r="BE18" s="3"/>
       <c r="BF18" s="3"/>
     </row>
-    <row r="19" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:58">
       <c r="A19" s="9"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2909,7 +2913,7 @@
         <v>37</v>
       </c>
       <c r="Q19" s="52" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
@@ -2953,7 +2957,7 @@
       <c r="BE19" s="3"/>
       <c r="BF19" s="3"/>
     </row>
-    <row r="20" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:58">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2973,7 +2977,7 @@
         <v>23</v>
       </c>
       <c r="Q20" s="52" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
@@ -3017,7 +3021,7 @@
       <c r="BE20" s="3"/>
       <c r="BF20" s="3"/>
     </row>
-    <row r="21" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:58">
       <c r="A21" s="14"/>
       <c r="B21" s="15"/>
       <c r="C21" s="3"/>
@@ -3037,7 +3041,7 @@
         <v>27</v>
       </c>
       <c r="Q21" s="52" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
@@ -3081,7 +3085,7 @@
       <c r="BE21" s="3"/>
       <c r="BF21" s="3"/>
     </row>
-    <row r="22" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:58">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -3101,7 +3105,7 @@
         <v>31</v>
       </c>
       <c r="Q22" s="52" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
@@ -3145,7 +3149,7 @@
       <c r="BE22" s="3"/>
       <c r="BF22" s="3"/>
     </row>
-    <row r="23" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:58">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -3165,7 +3169,7 @@
         <v>38</v>
       </c>
       <c r="Q23" s="52" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
@@ -3209,7 +3213,7 @@
       <c r="BE23" s="3"/>
       <c r="BF23" s="3"/>
     </row>
-    <row r="24" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:58">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -3229,7 +3233,7 @@
         <v>23</v>
       </c>
       <c r="Q24" s="52" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
@@ -3273,7 +3277,7 @@
       <c r="BE24" s="3"/>
       <c r="BF24" s="3"/>
     </row>
-    <row r="25" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:58">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -3293,7 +3297,7 @@
         <v>27</v>
       </c>
       <c r="Q25" s="52" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
@@ -3337,7 +3341,7 @@
       <c r="BE25" s="3"/>
       <c r="BF25" s="3"/>
     </row>
-    <row r="26" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:58">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -3357,7 +3361,7 @@
         <v>31</v>
       </c>
       <c r="Q26" s="52" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
@@ -3401,7 +3405,7 @@
       <c r="BE26" s="3"/>
       <c r="BF26" s="3"/>
     </row>
-    <row r="27" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:58">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -3421,7 +3425,7 @@
         <v>33</v>
       </c>
       <c r="Q27" s="52" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
@@ -3465,7 +3469,7 @@
       <c r="BE27" s="3"/>
       <c r="BF27" s="3"/>
     </row>
-    <row r="28" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:58">
       <c r="A28" s="9"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -3485,7 +3489,7 @@
         <v>23</v>
       </c>
       <c r="Q28" s="52" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
@@ -3529,7 +3533,7 @@
       <c r="BE28" s="3"/>
       <c r="BF28" s="3"/>
     </row>
-    <row r="29" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:58">
       <c r="A29" s="9"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -3549,7 +3553,7 @@
         <v>27</v>
       </c>
       <c r="Q29" s="52" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
@@ -3593,7 +3597,7 @@
       <c r="BE29" s="3"/>
       <c r="BF29" s="3"/>
     </row>
-    <row r="30" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:58">
       <c r="A30" s="9"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -3613,7 +3617,7 @@
         <v>31</v>
       </c>
       <c r="Q30" s="52" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
@@ -3657,7 +3661,7 @@
       <c r="BE30" s="3"/>
       <c r="BF30" s="3"/>
     </row>
-    <row r="31" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:58">
       <c r="A31" s="9"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -3719,7 +3723,7 @@
       <c r="BE31" s="3"/>
       <c r="BF31" s="3"/>
     </row>
-    <row r="32" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:58">
       <c r="A32" s="9"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -3779,7 +3783,7 @@
       <c r="BE32" s="3"/>
       <c r="BF32" s="3"/>
     </row>
-    <row r="33" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:58">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -3841,6 +3845,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="AR7:BD7"/>
+    <mergeCell ref="AR8:AR10"/>
+    <mergeCell ref="AD8:AD10"/>
+    <mergeCell ref="AD7:AP7"/>
+    <mergeCell ref="AM9:AN9"/>
+    <mergeCell ref="AO9:AP9"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="AE8:AJ8"/>
+    <mergeCell ref="AK8:AP8"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="P8:P10"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W8:AB8"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="Q8:V8"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I8:N8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
     <mergeCell ref="B6:N6"/>
     <mergeCell ref="P6:AB6"/>
     <mergeCell ref="AD6:AP6"/>
@@ -3857,34 +3889,6 @@
     <mergeCell ref="AY9:AZ9"/>
     <mergeCell ref="BA9:BB9"/>
     <mergeCell ref="BC9:BD9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I8:N8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="P8:P10"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W8:AB8"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="Q8:V8"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="AR7:BD7"/>
-    <mergeCell ref="AR8:AR10"/>
-    <mergeCell ref="AD8:AD10"/>
-    <mergeCell ref="AD7:AP7"/>
-    <mergeCell ref="AM9:AN9"/>
-    <mergeCell ref="AO9:AP9"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="AE8:AJ8"/>
-    <mergeCell ref="AK8:AP8"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AI9:AJ9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3894,11 +3898,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="AC7" workbookViewId="0">
+      <selection activeCell="AG18" sqref="AG18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="45" bestFit="1" customWidth="1"/>
     <col min="3" max="14" width="6.75" bestFit="1" customWidth="1"/>
@@ -3922,7 +3926,7 @@
     <col min="56" max="56" width="4.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:64">
       <c r="A1" s="22"/>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -3988,7 +3992,7 @@
       <c r="BK1" s="16"/>
       <c r="BL1" s="16"/>
     </row>
-    <row r="2" spans="1:64" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:64" ht="19.5">
       <c r="A2" s="24"/>
       <c r="B2" s="28" t="s">
         <v>0</v>
@@ -4056,7 +4060,7 @@
       <c r="BK2" s="28"/>
       <c r="BL2" s="28"/>
     </row>
-    <row r="3" spans="1:64" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:64" ht="19.5">
       <c r="A3" s="24"/>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
@@ -4122,7 +4126,7 @@
       <c r="BK3" s="28"/>
       <c r="BL3" s="28"/>
     </row>
-    <row r="4" spans="1:64" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:64" ht="19.5">
       <c r="A4" s="24"/>
       <c r="B4" s="28" t="s">
         <v>39</v>
@@ -4190,7 +4194,7 @@
       <c r="BK4" s="28"/>
       <c r="BL4" s="28"/>
     </row>
-    <row r="5" spans="1:64" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:64" ht="19.5">
       <c r="A5" s="24"/>
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
@@ -4256,71 +4260,71 @@
       <c r="BK5" s="28"/>
       <c r="BL5" s="28"/>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:64">
       <c r="A6" s="24"/>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="65"/>
       <c r="O6" s="18"/>
-      <c r="P6" s="72" t="s">
+      <c r="P6" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="Q6" s="72"/>
-      <c r="R6" s="72"/>
-      <c r="S6" s="72"/>
-      <c r="T6" s="72"/>
-      <c r="U6" s="72"/>
-      <c r="V6" s="72"/>
-      <c r="W6" s="72"/>
-      <c r="X6" s="72"/>
-      <c r="Y6" s="72"/>
-      <c r="Z6" s="72"/>
-      <c r="AA6" s="72"/>
-      <c r="AB6" s="72"/>
+      <c r="Q6" s="65"/>
+      <c r="R6" s="65"/>
+      <c r="S6" s="65"/>
+      <c r="T6" s="65"/>
+      <c r="U6" s="65"/>
+      <c r="V6" s="65"/>
+      <c r="W6" s="65"/>
+      <c r="X6" s="65"/>
+      <c r="Y6" s="65"/>
+      <c r="Z6" s="65"/>
+      <c r="AA6" s="65"/>
+      <c r="AB6" s="65"/>
       <c r="AC6" s="18"/>
-      <c r="AD6" s="72" t="s">
+      <c r="AD6" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="AE6" s="72"/>
-      <c r="AF6" s="72"/>
-      <c r="AG6" s="72"/>
-      <c r="AH6" s="72"/>
-      <c r="AI6" s="72"/>
-      <c r="AJ6" s="72"/>
-      <c r="AK6" s="72"/>
-      <c r="AL6" s="72"/>
-      <c r="AM6" s="72"/>
-      <c r="AN6" s="72"/>
-      <c r="AO6" s="72"/>
-      <c r="AP6" s="72"/>
+      <c r="AE6" s="65"/>
+      <c r="AF6" s="65"/>
+      <c r="AG6" s="65"/>
+      <c r="AH6" s="65"/>
+      <c r="AI6" s="65"/>
+      <c r="AJ6" s="65"/>
+      <c r="AK6" s="65"/>
+      <c r="AL6" s="65"/>
+      <c r="AM6" s="65"/>
+      <c r="AN6" s="65"/>
+      <c r="AO6" s="65"/>
+      <c r="AP6" s="65"/>
       <c r="AQ6" s="18"/>
-      <c r="AR6" s="72" t="s">
+      <c r="AR6" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="AS6" s="72"/>
-      <c r="AT6" s="72"/>
-      <c r="AU6" s="72"/>
-      <c r="AV6" s="72"/>
-      <c r="AW6" s="72"/>
-      <c r="AX6" s="72"/>
-      <c r="AY6" s="72"/>
-      <c r="AZ6" s="72"/>
-      <c r="BA6" s="72"/>
-      <c r="BB6" s="72"/>
-      <c r="BC6" s="72"/>
-      <c r="BD6" s="72"/>
+      <c r="AS6" s="65"/>
+      <c r="AT6" s="65"/>
+      <c r="AU6" s="65"/>
+      <c r="AV6" s="65"/>
+      <c r="AW6" s="65"/>
+      <c r="AX6" s="65"/>
+      <c r="AY6" s="65"/>
+      <c r="AZ6" s="65"/>
+      <c r="BA6" s="65"/>
+      <c r="BB6" s="65"/>
+      <c r="BC6" s="65"/>
+      <c r="BD6" s="65"/>
       <c r="BE6" s="16"/>
       <c r="BF6" s="16"/>
       <c r="BG6" s="16"/>
@@ -4330,71 +4334,71 @@
       <c r="BK6" s="16"/>
       <c r="BL6" s="16"/>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:64">
       <c r="A7" s="24"/>
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="65"/>
-      <c r="N7" s="65"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
       <c r="O7" s="18"/>
-      <c r="P7" s="65" t="s">
+      <c r="P7" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="Q7" s="65"/>
-      <c r="R7" s="65"/>
-      <c r="S7" s="65"/>
-      <c r="T7" s="65"/>
-      <c r="U7" s="65"/>
-      <c r="V7" s="65"/>
-      <c r="W7" s="65"/>
-      <c r="X7" s="65"/>
-      <c r="Y7" s="65"/>
-      <c r="Z7" s="65"/>
-      <c r="AA7" s="65"/>
-      <c r="AB7" s="65"/>
+      <c r="Q7" s="70"/>
+      <c r="R7" s="70"/>
+      <c r="S7" s="70"/>
+      <c r="T7" s="70"/>
+      <c r="U7" s="70"/>
+      <c r="V7" s="70"/>
+      <c r="W7" s="70"/>
+      <c r="X7" s="70"/>
+      <c r="Y7" s="70"/>
+      <c r="Z7" s="70"/>
+      <c r="AA7" s="70"/>
+      <c r="AB7" s="70"/>
       <c r="AC7" s="18"/>
-      <c r="AD7" s="65" t="s">
+      <c r="AD7" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="AE7" s="65"/>
-      <c r="AF7" s="65"/>
-      <c r="AG7" s="65"/>
-      <c r="AH7" s="65"/>
-      <c r="AI7" s="65"/>
-      <c r="AJ7" s="65"/>
-      <c r="AK7" s="65"/>
-      <c r="AL7" s="65"/>
-      <c r="AM7" s="65"/>
-      <c r="AN7" s="65"/>
-      <c r="AO7" s="65"/>
-      <c r="AP7" s="65"/>
+      <c r="AE7" s="70"/>
+      <c r="AF7" s="70"/>
+      <c r="AG7" s="70"/>
+      <c r="AH7" s="70"/>
+      <c r="AI7" s="70"/>
+      <c r="AJ7" s="70"/>
+      <c r="AK7" s="70"/>
+      <c r="AL7" s="70"/>
+      <c r="AM7" s="70"/>
+      <c r="AN7" s="70"/>
+      <c r="AO7" s="70"/>
+      <c r="AP7" s="70"/>
       <c r="AQ7" s="18"/>
-      <c r="AR7" s="65" t="s">
+      <c r="AR7" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="AS7" s="65"/>
-      <c r="AT7" s="65"/>
-      <c r="AU7" s="65"/>
-      <c r="AV7" s="65"/>
-      <c r="AW7" s="65"/>
-      <c r="AX7" s="65"/>
-      <c r="AY7" s="65"/>
-      <c r="AZ7" s="65"/>
-      <c r="BA7" s="65"/>
-      <c r="BB7" s="65"/>
-      <c r="BC7" s="65"/>
-      <c r="BD7" s="65"/>
+      <c r="AS7" s="70"/>
+      <c r="AT7" s="70"/>
+      <c r="AU7" s="70"/>
+      <c r="AV7" s="70"/>
+      <c r="AW7" s="70"/>
+      <c r="AX7" s="70"/>
+      <c r="AY7" s="70"/>
+      <c r="AZ7" s="70"/>
+      <c r="BA7" s="70"/>
+      <c r="BB7" s="70"/>
+      <c r="BC7" s="70"/>
+      <c r="BD7" s="70"/>
       <c r="BE7" s="16"/>
       <c r="BF7" s="16"/>
       <c r="BG7" s="16"/>
@@ -4404,79 +4408,79 @@
       <c r="BK7" s="16"/>
       <c r="BL7" s="16"/>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:64">
       <c r="A8" s="24"/>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="68" t="s">
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="71"/>
       <c r="O8" s="18"/>
-      <c r="P8" s="66" t="s">
+      <c r="P8" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="Q8" s="69" t="s">
+      <c r="Q8" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="R8" s="70"/>
-      <c r="S8" s="70"/>
-      <c r="T8" s="70"/>
-      <c r="U8" s="70"/>
-      <c r="V8" s="70"/>
-      <c r="W8" s="68" t="s">
+      <c r="R8" s="67"/>
+      <c r="S8" s="67"/>
+      <c r="T8" s="67"/>
+      <c r="U8" s="67"/>
+      <c r="V8" s="67"/>
+      <c r="W8" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="X8" s="68"/>
-      <c r="Y8" s="68"/>
-      <c r="Z8" s="68"/>
-      <c r="AA8" s="68"/>
-      <c r="AB8" s="68"/>
+      <c r="X8" s="71"/>
+      <c r="Y8" s="71"/>
+      <c r="Z8" s="71"/>
+      <c r="AA8" s="71"/>
+      <c r="AB8" s="71"/>
       <c r="AC8" s="18"/>
-      <c r="AD8" s="66" t="s">
+      <c r="AD8" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="AE8" s="69" t="s">
+      <c r="AE8" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="AF8" s="70"/>
-      <c r="AG8" s="70"/>
-      <c r="AH8" s="70"/>
-      <c r="AI8" s="70"/>
-      <c r="AJ8" s="70"/>
-      <c r="AK8" s="68" t="s">
+      <c r="AF8" s="67"/>
+      <c r="AG8" s="67"/>
+      <c r="AH8" s="67"/>
+      <c r="AI8" s="67"/>
+      <c r="AJ8" s="67"/>
+      <c r="AK8" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="AL8" s="68"/>
-      <c r="AM8" s="68"/>
-      <c r="AN8" s="68"/>
-      <c r="AO8" s="68"/>
-      <c r="AP8" s="68"/>
+      <c r="AL8" s="71"/>
+      <c r="AM8" s="71"/>
+      <c r="AN8" s="71"/>
+      <c r="AO8" s="71"/>
+      <c r="AP8" s="71"/>
       <c r="AQ8" s="18"/>
-      <c r="AR8" s="73" t="s">
+      <c r="AR8" s="77" t="s">
         <v>49</v>
       </c>
-      <c r="AS8" s="76" t="s">
+      <c r="AS8" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="AT8" s="77"/>
-      <c r="AU8" s="77"/>
-      <c r="AV8" s="77"/>
-      <c r="AW8" s="77"/>
-      <c r="AX8" s="77"/>
+      <c r="AT8" s="74"/>
+      <c r="AU8" s="74"/>
+      <c r="AV8" s="74"/>
+      <c r="AW8" s="74"/>
+      <c r="AX8" s="74"/>
       <c r="AY8" s="75" t="s">
         <v>9</v>
       </c>
@@ -4494,99 +4498,99 @@
       <c r="BK8" s="16"/>
       <c r="BL8" s="16"/>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:64">
       <c r="A9" s="24"/>
-      <c r="B9" s="67"/>
-      <c r="C9" s="69" t="s">
+      <c r="B9" s="69"/>
+      <c r="C9" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="70"/>
-      <c r="E9" s="69" t="s">
+      <c r="D9" s="67"/>
+      <c r="E9" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="70"/>
-      <c r="G9" s="69" t="s">
+      <c r="F9" s="67"/>
+      <c r="G9" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="71"/>
-      <c r="I9" s="68" t="s">
+      <c r="H9" s="72"/>
+      <c r="I9" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68" t="s">
+      <c r="J9" s="71"/>
+      <c r="K9" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="L9" s="68"/>
-      <c r="M9" s="68" t="s">
+      <c r="L9" s="71"/>
+      <c r="M9" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="N9" s="68"/>
+      <c r="N9" s="71"/>
       <c r="O9" s="18"/>
-      <c r="P9" s="67"/>
-      <c r="Q9" s="69" t="s">
+      <c r="P9" s="69"/>
+      <c r="Q9" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="R9" s="70"/>
-      <c r="S9" s="69" t="s">
+      <c r="R9" s="67"/>
+      <c r="S9" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="T9" s="70"/>
-      <c r="U9" s="69" t="s">
+      <c r="T9" s="67"/>
+      <c r="U9" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="V9" s="71"/>
-      <c r="W9" s="68" t="s">
+      <c r="V9" s="72"/>
+      <c r="W9" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="X9" s="68"/>
-      <c r="Y9" s="68" t="s">
+      <c r="X9" s="71"/>
+      <c r="Y9" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Z9" s="68"/>
-      <c r="AA9" s="68" t="s">
+      <c r="Z9" s="71"/>
+      <c r="AA9" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="AB9" s="68"/>
+      <c r="AB9" s="71"/>
       <c r="AC9" s="18"/>
-      <c r="AD9" s="67"/>
-      <c r="AE9" s="69" t="s">
+      <c r="AD9" s="69"/>
+      <c r="AE9" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="AF9" s="70"/>
-      <c r="AG9" s="69" t="s">
+      <c r="AF9" s="67"/>
+      <c r="AG9" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="AH9" s="70"/>
-      <c r="AI9" s="69" t="s">
+      <c r="AH9" s="67"/>
+      <c r="AI9" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="AJ9" s="71"/>
-      <c r="AK9" s="68" t="s">
+      <c r="AJ9" s="72"/>
+      <c r="AK9" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="AL9" s="68"/>
-      <c r="AM9" s="68" t="s">
+      <c r="AL9" s="71"/>
+      <c r="AM9" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="AN9" s="68"/>
-      <c r="AO9" s="68" t="s">
+      <c r="AN9" s="71"/>
+      <c r="AO9" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="AP9" s="68"/>
+      <c r="AP9" s="71"/>
       <c r="AQ9" s="18"/>
-      <c r="AR9" s="74"/>
-      <c r="AS9" s="76" t="s">
+      <c r="AR9" s="78"/>
+      <c r="AS9" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="AT9" s="77"/>
-      <c r="AU9" s="76" t="s">
+      <c r="AT9" s="74"/>
+      <c r="AU9" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="AV9" s="77"/>
-      <c r="AW9" s="76" t="s">
+      <c r="AV9" s="74"/>
+      <c r="AW9" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AX9" s="78"/>
+      <c r="AX9" s="76"/>
       <c r="AY9" s="75" t="s">
         <v>13</v>
       </c>
@@ -4608,9 +4612,9 @@
       <c r="BK9" s="16"/>
       <c r="BL9" s="16"/>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:64">
       <c r="A10" s="24"/>
-      <c r="B10" s="67"/>
+      <c r="B10" s="69"/>
       <c r="C10" s="25" t="s">
         <v>16</v>
       </c>
@@ -4648,7 +4652,7 @@
         <v>17</v>
       </c>
       <c r="O10" s="18"/>
-      <c r="P10" s="67"/>
+      <c r="P10" s="69"/>
       <c r="Q10" s="25" t="s">
         <v>16</v>
       </c>
@@ -4686,7 +4690,7 @@
         <v>17</v>
       </c>
       <c r="AC10" s="18"/>
-      <c r="AD10" s="67"/>
+      <c r="AD10" s="69"/>
       <c r="AE10" s="25" t="s">
         <v>16</v>
       </c>
@@ -4724,7 +4728,7 @@
         <v>17</v>
       </c>
       <c r="AQ10" s="18"/>
-      <c r="AR10" s="74"/>
+      <c r="AR10" s="78"/>
       <c r="AS10" s="29" t="s">
         <v>50</v>
       </c>
@@ -4770,13 +4774,13 @@
       <c r="BK10" s="16"/>
       <c r="BL10" s="16"/>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:64" ht="20.25">
       <c r="A11" s="24"/>
       <c r="B11" s="17" t="s">
         <v>52</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
@@ -4794,7 +4798,7 @@
         <v>53</v>
       </c>
       <c r="Q11" s="17" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="R11" s="17"/>
       <c r="S11" s="17"/>
@@ -4808,11 +4812,11 @@
       <c r="AA11" s="17"/>
       <c r="AB11" s="17"/>
       <c r="AC11" s="18"/>
-      <c r="AD11" s="17" t="s">
-        <v>54</v>
+      <c r="AD11" s="89" t="s">
+        <v>211</v>
       </c>
       <c r="AE11" s="17" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="AF11" s="17"/>
       <c r="AG11" s="17"/>
@@ -4830,7 +4834,7 @@
         <v>49</v>
       </c>
       <c r="AS11" s="17" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AT11" s="17"/>
       <c r="AU11" s="17"/>
@@ -4852,13 +4856,13 @@
       <c r="BK11" s="16"/>
       <c r="BL11" s="16"/>
     </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:64" ht="20.25">
       <c r="A12" s="24"/>
       <c r="B12" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
@@ -4873,10 +4877,10 @@
       <c r="N12" s="17"/>
       <c r="O12" s="18"/>
       <c r="P12" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q12" s="52" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="R12" s="17"/>
       <c r="S12" s="17"/>
@@ -4890,11 +4894,11 @@
       <c r="AA12" s="17"/>
       <c r="AB12" s="17"/>
       <c r="AC12" s="18"/>
-      <c r="AD12" s="17" t="s">
-        <v>57</v>
+      <c r="AD12" s="89" t="s">
+        <v>212</v>
       </c>
       <c r="AE12" s="52" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="AF12" s="17"/>
       <c r="AG12" s="17"/>
@@ -4909,10 +4913,10 @@
       <c r="AP12" s="17"/>
       <c r="AQ12" s="18"/>
       <c r="AR12" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AS12" s="17" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="AT12" s="17"/>
       <c r="AU12" s="17"/>
@@ -4934,7 +4938,7 @@
       <c r="BK12" s="16"/>
       <c r="BL12" s="16"/>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:64" ht="20.25">
       <c r="A13" s="24"/>
       <c r="B13" s="21" t="s">
         <v>15</v>
@@ -4953,10 +4957,10 @@
       <c r="N13" s="17"/>
       <c r="O13" s="18"/>
       <c r="P13" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q13" s="52" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="R13" s="17"/>
       <c r="S13" s="17"/>
@@ -4970,11 +4974,11 @@
       <c r="AA13" s="17"/>
       <c r="AB13" s="17"/>
       <c r="AC13" s="18"/>
-      <c r="AD13" s="17" t="s">
-        <v>60</v>
+      <c r="AD13" s="89" t="s">
+        <v>213</v>
       </c>
       <c r="AE13" s="52" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="AF13" s="17"/>
       <c r="AG13" s="17"/>
@@ -4989,10 +4993,10 @@
       <c r="AP13" s="17"/>
       <c r="AQ13" s="18"/>
       <c r="AR13" s="17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AS13" s="17" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="AT13" s="17"/>
       <c r="AU13" s="17"/>
@@ -5014,7 +5018,7 @@
       <c r="BK13" s="16"/>
       <c r="BL13" s="16"/>
     </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:64" ht="20.25">
       <c r="A14" s="24"/>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
@@ -5031,10 +5035,10 @@
       <c r="N14" s="18"/>
       <c r="O14" s="18"/>
       <c r="P14" s="17" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Q14" s="52" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="R14" s="17"/>
       <c r="S14" s="17"/>
@@ -5048,11 +5052,11 @@
       <c r="AA14" s="17"/>
       <c r="AB14" s="17"/>
       <c r="AC14" s="18"/>
-      <c r="AD14" s="17" t="s">
-        <v>63</v>
+      <c r="AD14" s="89" t="s">
+        <v>214</v>
       </c>
       <c r="AE14" s="52" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="AF14" s="17"/>
       <c r="AG14" s="17"/>
@@ -5067,10 +5071,10 @@
       <c r="AP14" s="17"/>
       <c r="AQ14" s="18"/>
       <c r="AR14" s="17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="AS14" s="17" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="AT14" s="17"/>
       <c r="AU14" s="17"/>
@@ -5092,7 +5096,7 @@
       <c r="BK14" s="16"/>
       <c r="BL14" s="16"/>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:64" ht="20.25">
       <c r="A15" s="24"/>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
@@ -5109,10 +5113,10 @@
       <c r="N15" s="18"/>
       <c r="O15" s="18"/>
       <c r="P15" s="17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="Q15" s="52" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="R15" s="17"/>
       <c r="S15" s="17"/>
@@ -5126,11 +5130,11 @@
       <c r="AA15" s="17"/>
       <c r="AB15" s="17"/>
       <c r="AC15" s="18"/>
-      <c r="AD15" s="17" t="s">
-        <v>66</v>
+      <c r="AD15" s="89" t="s">
+        <v>62</v>
       </c>
       <c r="AE15" s="52" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="AF15" s="17"/>
       <c r="AG15" s="17"/>
@@ -5145,10 +5149,10 @@
       <c r="AP15" s="17"/>
       <c r="AQ15" s="18"/>
       <c r="AR15" s="19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AS15" s="17" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="AT15" s="17"/>
       <c r="AU15" s="17"/>
@@ -5170,7 +5174,7 @@
       <c r="BK15" s="16"/>
       <c r="BL15" s="16"/>
     </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:64">
       <c r="A16" s="24"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -5202,12 +5206,10 @@
       <c r="AA16" s="17"/>
       <c r="AB16" s="17"/>
       <c r="AC16" s="18"/>
-      <c r="AD16" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE16" s="52" t="s">
-        <v>159</v>
-      </c>
+      <c r="AD16" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE16" s="17"/>
       <c r="AF16" s="17"/>
       <c r="AG16" s="17"/>
       <c r="AH16" s="17"/>
@@ -5221,10 +5223,10 @@
       <c r="AP16" s="17"/>
       <c r="AQ16" s="18"/>
       <c r="AR16" s="19" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AS16" s="17" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="AT16" s="17"/>
       <c r="AU16" s="17"/>
@@ -5246,7 +5248,7 @@
       <c r="BK16" s="16"/>
       <c r="BL16" s="16"/>
     </row>
-    <row r="17" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:56">
       <c r="A17" s="24"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -5276,21 +5278,19 @@
       <c r="AA17" s="18"/>
       <c r="AB17" s="18"/>
       <c r="AC17" s="18"/>
-      <c r="AD17" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE17" s="17"/>
-      <c r="AF17" s="17"/>
-      <c r="AG17" s="17"/>
-      <c r="AH17" s="17"/>
-      <c r="AI17" s="17"/>
-      <c r="AJ17" s="17"/>
-      <c r="AK17" s="17"/>
-      <c r="AL17" s="17"/>
-      <c r="AM17" s="17"/>
-      <c r="AN17" s="17"/>
-      <c r="AO17" s="17"/>
-      <c r="AP17" s="17"/>
+      <c r="AD17" s="18"/>
+      <c r="AE17" s="18"/>
+      <c r="AF17" s="18"/>
+      <c r="AG17" s="18"/>
+      <c r="AH17" s="18"/>
+      <c r="AI17" s="18"/>
+      <c r="AJ17" s="18"/>
+      <c r="AK17" s="18"/>
+      <c r="AL17" s="18"/>
+      <c r="AM17" s="18"/>
+      <c r="AN17" s="18"/>
+      <c r="AO17" s="18"/>
+      <c r="AP17" s="18"/>
       <c r="AQ17" s="18"/>
       <c r="AR17" s="21" t="s">
         <v>15</v>
@@ -5308,7 +5308,7 @@
       <c r="BC17" s="17"/>
       <c r="BD17" s="17"/>
     </row>
-    <row r="18" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:56">
       <c r="A18" s="24"/>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
@@ -5366,7 +5366,7 @@
       <c r="BC18" s="18"/>
       <c r="BD18" s="18"/>
     </row>
-    <row r="19" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:56">
       <c r="A19" s="24"/>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
@@ -5424,7 +5424,7 @@
       <c r="BC19" s="18"/>
       <c r="BD19" s="18"/>
     </row>
-    <row r="20" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:56">
       <c r="A20" s="18"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
@@ -5454,19 +5454,19 @@
       <c r="AA20" s="18"/>
       <c r="AB20" s="18"/>
       <c r="AC20" s="18"/>
-      <c r="AD20" s="18"/>
-      <c r="AE20" s="18"/>
-      <c r="AF20" s="18"/>
-      <c r="AG20" s="18"/>
-      <c r="AH20" s="18"/>
-      <c r="AI20" s="18"/>
-      <c r="AJ20" s="18"/>
-      <c r="AK20" s="18"/>
-      <c r="AL20" s="18"/>
-      <c r="AM20" s="18"/>
-      <c r="AN20" s="18"/>
-      <c r="AO20" s="18"/>
-      <c r="AP20" s="18"/>
+      <c r="AD20" s="16"/>
+      <c r="AE20" s="16"/>
+      <c r="AF20" s="16"/>
+      <c r="AG20" s="16"/>
+      <c r="AH20" s="16"/>
+      <c r="AI20" s="16"/>
+      <c r="AJ20" s="16"/>
+      <c r="AK20" s="16"/>
+      <c r="AL20" s="16"/>
+      <c r="AM20" s="16"/>
+      <c r="AN20" s="16"/>
+      <c r="AO20" s="16"/>
+      <c r="AP20" s="16"/>
       <c r="AQ20" s="18"/>
       <c r="AR20" s="18"/>
       <c r="AS20" s="18"/>
@@ -5482,7 +5482,7 @@
       <c r="BC20" s="18"/>
       <c r="BD20" s="18"/>
     </row>
-    <row r="21" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:56">
       <c r="A21" s="16"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -5540,7 +5540,7 @@
       <c r="BC21" s="16"/>
       <c r="BD21" s="16"/>
     </row>
-    <row r="22" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:56">
       <c r="A22" s="16"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -5598,7 +5598,7 @@
       <c r="BC22" s="16"/>
       <c r="BD22" s="16"/>
     </row>
-    <row r="23" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:56">
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -5656,7 +5656,7 @@
       <c r="BC23" s="16"/>
       <c r="BD23" s="16"/>
     </row>
-    <row r="24" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:56">
       <c r="A24" s="16"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -5714,7 +5714,7 @@
       <c r="BC24" s="16"/>
       <c r="BD24" s="16"/>
     </row>
-    <row r="25" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:56">
       <c r="A25" s="16"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -5772,7 +5772,7 @@
       <c r="BC25" s="16"/>
       <c r="BD25" s="16"/>
     </row>
-    <row r="26" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:56">
       <c r="A26" s="16"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -5830,7 +5830,7 @@
       <c r="BC26" s="16"/>
       <c r="BD26" s="16"/>
     </row>
-    <row r="27" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:56">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -5888,7 +5888,7 @@
       <c r="BC27" s="16"/>
       <c r="BD27" s="16"/>
     </row>
-    <row r="28" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:56">
       <c r="A28" s="16"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -5946,7 +5946,7 @@
       <c r="BC28" s="16"/>
       <c r="BD28" s="16"/>
     </row>
-    <row r="29" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:56">
       <c r="A29" s="16"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -6004,7 +6004,7 @@
       <c r="BC29" s="16"/>
       <c r="BD29" s="16"/>
     </row>
-    <row r="30" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:56">
       <c r="A30" s="16"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -6034,19 +6034,6 @@
       <c r="AA30" s="18"/>
       <c r="AB30" s="18"/>
       <c r="AC30" s="16"/>
-      <c r="AD30" s="16"/>
-      <c r="AE30" s="16"/>
-      <c r="AF30" s="16"/>
-      <c r="AG30" s="16"/>
-      <c r="AH30" s="16"/>
-      <c r="AI30" s="16"/>
-      <c r="AJ30" s="16"/>
-      <c r="AK30" s="16"/>
-      <c r="AL30" s="16"/>
-      <c r="AM30" s="16"/>
-      <c r="AN30" s="16"/>
-      <c r="AO30" s="16"/>
-      <c r="AP30" s="16"/>
       <c r="AQ30" s="16"/>
       <c r="AR30" s="16"/>
       <c r="AS30" s="16"/>
@@ -6064,6 +6051,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="AR8:AR10"/>
+    <mergeCell ref="AR7:BD7"/>
+    <mergeCell ref="AD8:AD10"/>
+    <mergeCell ref="AD7:AP7"/>
+    <mergeCell ref="P8:P10"/>
+    <mergeCell ref="P7:AB7"/>
+    <mergeCell ref="AY9:AZ9"/>
+    <mergeCell ref="BA9:BB9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B7:N7"/>
+    <mergeCell ref="B6:N6"/>
+    <mergeCell ref="P6:AB6"/>
+    <mergeCell ref="AD6:AP6"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="I8:N8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="Q8:V8"/>
+    <mergeCell ref="W8:AB8"/>
+    <mergeCell ref="Q9:R9"/>
     <mergeCell ref="AR6:BD6"/>
     <mergeCell ref="AS8:AX8"/>
     <mergeCell ref="AY8:BD8"/>
@@ -6080,34 +6095,6 @@
     <mergeCell ref="AS9:AT9"/>
     <mergeCell ref="AU9:AV9"/>
     <mergeCell ref="AW9:AX9"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B7:N7"/>
-    <mergeCell ref="B6:N6"/>
-    <mergeCell ref="P6:AB6"/>
-    <mergeCell ref="AD6:AP6"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="I8:N8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="Q8:V8"/>
-    <mergeCell ref="W8:AB8"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="AR8:AR10"/>
-    <mergeCell ref="AR7:BD7"/>
-    <mergeCell ref="AD8:AD10"/>
-    <mergeCell ref="AD7:AP7"/>
-    <mergeCell ref="P8:P10"/>
-    <mergeCell ref="P7:AB7"/>
-    <mergeCell ref="AY9:AZ9"/>
-    <mergeCell ref="BA9:BB9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="Y9:Z9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6117,17 +6104,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="45" bestFit="1" customWidth="1"/>
     <col min="3" max="14" width="6.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:64">
       <c r="A1" s="36"/>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
@@ -6193,7 +6180,7 @@
       <c r="BK1" s="31"/>
       <c r="BL1" s="31"/>
     </row>
-    <row r="2" spans="1:64" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:64" ht="19.5">
       <c r="A2" s="37"/>
       <c r="B2" s="40" t="s">
         <v>0</v>
@@ -6261,7 +6248,7 @@
       <c r="BK2" s="40"/>
       <c r="BL2" s="40"/>
     </row>
-    <row r="3" spans="1:64" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:64" ht="19.5">
       <c r="A3" s="37"/>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
@@ -6327,10 +6314,10 @@
       <c r="BK3" s="40"/>
       <c r="BL3" s="40"/>
     </row>
-    <row r="4" spans="1:64" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:64" ht="19.5">
       <c r="A4" s="37"/>
       <c r="B4" s="40" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C4" s="40"/>
       <c r="D4" s="40"/>
@@ -6395,7 +6382,7 @@
       <c r="BK4" s="40"/>
       <c r="BL4" s="40"/>
     </row>
-    <row r="5" spans="1:64" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:64" ht="19.5">
       <c r="A5" s="33"/>
       <c r="B5" s="40"/>
       <c r="C5" s="40"/>
@@ -6461,23 +6448,23 @@
       <c r="BK5" s="31"/>
       <c r="BL5" s="31"/>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:64">
       <c r="A6" s="33"/>
-      <c r="B6" s="72" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
+      <c r="B6" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="65"/>
       <c r="O6" s="31"/>
       <c r="P6" s="31"/>
       <c r="Q6" s="31"/>
@@ -6529,23 +6516,23 @@
       <c r="BK6" s="31"/>
       <c r="BL6" s="31"/>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:64">
       <c r="A7" s="33"/>
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="65"/>
-      <c r="N7" s="65"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
       <c r="O7" s="31"/>
       <c r="P7" s="31"/>
       <c r="Q7" s="31"/>
@@ -6597,27 +6584,27 @@
       <c r="BK7" s="31"/>
       <c r="BL7" s="31"/>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:64">
       <c r="A8" s="33"/>
       <c r="B8" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="69" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="68" t="s">
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="71"/>
       <c r="O8" s="31"/>
       <c r="P8" s="31"/>
       <c r="Q8" s="31"/>
@@ -6669,33 +6656,33 @@
       <c r="BK8" s="31"/>
       <c r="BL8" s="31"/>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:64">
       <c r="A9" s="33"/>
       <c r="B9" s="80"/>
-      <c r="C9" s="69" t="s">
+      <c r="C9" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="70"/>
-      <c r="E9" s="69" t="s">
+      <c r="D9" s="67"/>
+      <c r="E9" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="70"/>
-      <c r="G9" s="69" t="s">
+      <c r="F9" s="67"/>
+      <c r="G9" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="71"/>
-      <c r="I9" s="68" t="s">
+      <c r="H9" s="72"/>
+      <c r="I9" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68" t="s">
+      <c r="J9" s="71"/>
+      <c r="K9" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="L9" s="68"/>
-      <c r="M9" s="68" t="s">
+      <c r="L9" s="71"/>
+      <c r="M9" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="N9" s="68"/>
+      <c r="N9" s="71"/>
       <c r="O9" s="31"/>
       <c r="P9" s="31"/>
       <c r="Q9" s="31"/>
@@ -6747,7 +6734,7 @@
       <c r="BK9" s="31"/>
       <c r="BL9" s="31"/>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:64">
       <c r="A10" s="33"/>
       <c r="B10" s="80"/>
       <c r="C10" s="38" t="s">
@@ -6837,13 +6824,13 @@
       <c r="BK10" s="31"/>
       <c r="BL10" s="31"/>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:64">
       <c r="A11" s="33"/>
       <c r="B11" s="32" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D11" s="32"/>
       <c r="E11" s="32"/>
@@ -6907,13 +6894,13 @@
       <c r="BK11" s="31"/>
       <c r="BL11" s="31"/>
     </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:64">
       <c r="A12" s="33"/>
       <c r="B12" s="32" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C12" s="52" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D12" s="32"/>
       <c r="E12" s="32"/>
@@ -6977,13 +6964,13 @@
       <c r="BK12" s="31"/>
       <c r="BL12" s="31"/>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:64">
       <c r="A13" s="33"/>
       <c r="B13" s="32" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C13" s="52" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D13" s="32"/>
       <c r="E13" s="32"/>
@@ -7047,13 +7034,13 @@
       <c r="BK13" s="31"/>
       <c r="BL13" s="31"/>
     </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:64">
       <c r="A14" s="33"/>
       <c r="B14" s="32" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C14" s="52" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D14" s="32"/>
       <c r="E14" s="32"/>
@@ -7117,13 +7104,13 @@
       <c r="BK14" s="31"/>
       <c r="BL14" s="31"/>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:64">
       <c r="A15" s="33"/>
       <c r="B15" s="32" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C15" s="52" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D15" s="32"/>
       <c r="E15" s="32"/>
@@ -7187,13 +7174,13 @@
       <c r="BK15" s="31"/>
       <c r="BL15" s="31"/>
     </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:64">
       <c r="A16" s="33"/>
       <c r="B16" s="34" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C16" s="52" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D16" s="32"/>
       <c r="E16" s="32"/>
@@ -7257,13 +7244,13 @@
       <c r="BK16" s="31"/>
       <c r="BL16" s="31"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14">
       <c r="A17" s="33"/>
       <c r="B17" s="34" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C17" s="52" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D17" s="32"/>
       <c r="E17" s="32"/>
@@ -7277,13 +7264,13 @@
       <c r="M17" s="32"/>
       <c r="N17" s="32"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14">
       <c r="A18" s="33"/>
       <c r="B18" s="34" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="52" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D18" s="32"/>
       <c r="E18" s="32"/>
@@ -7297,7 +7284,7 @@
       <c r="M18" s="32"/>
       <c r="N18" s="32"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14">
       <c r="A19" s="33"/>
       <c r="B19" s="35" t="s">
         <v>15</v>
@@ -7315,7 +7302,7 @@
       <c r="M19" s="32"/>
       <c r="N19" s="32"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14">
       <c r="A20" s="33"/>
       <c r="B20" s="33"/>
       <c r="C20" s="33"/>
@@ -7357,7 +7344,7 @@
       <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="51.125" bestFit="1" customWidth="1"/>
     <col min="3" max="14" width="6.75" bestFit="1" customWidth="1"/>
@@ -7365,7 +7352,7 @@
     <col min="17" max="28" width="6.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:64">
       <c r="A1" s="45"/>
       <c r="B1" s="45"/>
       <c r="C1" s="45"/>
@@ -7431,7 +7418,7 @@
       <c r="BK1" s="41"/>
       <c r="BL1" s="41"/>
     </row>
-    <row r="2" spans="1:64" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:64" ht="19.5">
       <c r="A2" s="46"/>
       <c r="B2" s="50" t="s">
         <v>0</v>
@@ -7499,7 +7486,7 @@
       <c r="BK2" s="50"/>
       <c r="BL2" s="50"/>
     </row>
-    <row r="3" spans="1:64" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:64" ht="19.5">
       <c r="A3" s="46"/>
       <c r="B3" s="50"/>
       <c r="C3" s="50"/>
@@ -7565,10 +7552,10 @@
       <c r="BK3" s="50"/>
       <c r="BL3" s="50"/>
     </row>
-    <row r="4" spans="1:64" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:64" ht="19.5">
       <c r="A4" s="46"/>
       <c r="B4" s="50" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C4" s="50"/>
       <c r="D4" s="50"/>
@@ -7633,7 +7620,7 @@
       <c r="BK4" s="50"/>
       <c r="BL4" s="50"/>
     </row>
-    <row r="5" spans="1:64" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:64" ht="19.5">
       <c r="A5" s="43"/>
       <c r="B5" s="50"/>
       <c r="C5" s="50"/>
@@ -7699,39 +7686,39 @@
       <c r="BK5" s="41"/>
       <c r="BL5" s="41"/>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:64">
       <c r="A6" s="43"/>
-      <c r="B6" s="72" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
+      <c r="B6" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="65"/>
       <c r="O6" s="43"/>
-      <c r="P6" s="72" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q6" s="72"/>
-      <c r="R6" s="72"/>
-      <c r="S6" s="72"/>
-      <c r="T6" s="72"/>
-      <c r="U6" s="72"/>
-      <c r="V6" s="72"/>
-      <c r="W6" s="72"/>
-      <c r="X6" s="72"/>
-      <c r="Y6" s="72"/>
-      <c r="Z6" s="72"/>
-      <c r="AA6" s="72"/>
-      <c r="AB6" s="72"/>
+      <c r="P6" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q6" s="65"/>
+      <c r="R6" s="65"/>
+      <c r="S6" s="65"/>
+      <c r="T6" s="65"/>
+      <c r="U6" s="65"/>
+      <c r="V6" s="65"/>
+      <c r="W6" s="65"/>
+      <c r="X6" s="65"/>
+      <c r="Y6" s="65"/>
+      <c r="Z6" s="65"/>
+      <c r="AA6" s="65"/>
+      <c r="AB6" s="65"/>
       <c r="AC6" s="41"/>
       <c r="AD6" s="41"/>
       <c r="AE6" s="41"/>
@@ -7769,7 +7756,7 @@
       <c r="BK6" s="41"/>
       <c r="BL6" s="41"/>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:64">
       <c r="A7" s="43"/>
       <c r="B7" s="85" t="s">
         <v>6</v>
@@ -7839,10 +7826,10 @@
       <c r="BK7" s="41"/>
       <c r="BL7" s="41"/>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:64">
       <c r="A8" s="43"/>
       <c r="B8" s="79" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C8" s="81" t="s">
         <v>8</v>
@@ -7862,7 +7849,7 @@
       <c r="N8" s="82"/>
       <c r="O8" s="43"/>
       <c r="P8" s="79" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="Q8" s="81" t="s">
         <v>8</v>
@@ -7917,7 +7904,7 @@
       <c r="BK8" s="41"/>
       <c r="BL8" s="41"/>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:64">
       <c r="A9" s="43"/>
       <c r="B9" s="80"/>
       <c r="C9" s="81" t="s">
@@ -8007,7 +7994,7 @@
       <c r="BK9" s="41"/>
       <c r="BL9" s="41"/>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:64">
       <c r="A10" s="43"/>
       <c r="B10" s="83"/>
       <c r="C10" s="47" t="s">
@@ -8121,13 +8108,13 @@
       <c r="BK10" s="41"/>
       <c r="BL10" s="41"/>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:64">
       <c r="A11" s="43"/>
       <c r="B11" s="42" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D11" s="42"/>
       <c r="E11" s="42"/>
@@ -8142,10 +8129,10 @@
       <c r="N11" s="42"/>
       <c r="O11" s="43"/>
       <c r="P11" s="42" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="Q11" s="42" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="R11" s="42"/>
       <c r="S11" s="42"/>
@@ -8195,13 +8182,13 @@
       <c r="BK11" s="41"/>
       <c r="BL11" s="41"/>
     </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:64">
       <c r="A12" s="43"/>
       <c r="B12" s="42" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C12" s="52" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D12" s="42"/>
       <c r="E12" s="42"/>
@@ -8216,10 +8203,10 @@
       <c r="N12" s="42"/>
       <c r="O12" s="43"/>
       <c r="P12" s="42" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="Q12" s="52" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="R12" s="42"/>
       <c r="S12" s="42"/>
@@ -8269,13 +8256,13 @@
       <c r="BK12" s="41"/>
       <c r="BL12" s="41"/>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:64">
       <c r="A13" s="43"/>
       <c r="B13" s="42" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C13" s="52" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D13" s="42"/>
       <c r="E13" s="42"/>
@@ -8290,10 +8277,10 @@
       <c r="N13" s="42"/>
       <c r="O13" s="43"/>
       <c r="P13" s="42" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="Q13" s="52" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="R13" s="42"/>
       <c r="S13" s="42"/>
@@ -8343,13 +8330,13 @@
       <c r="BK13" s="41"/>
       <c r="BL13" s="41"/>
     </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:64">
       <c r="A14" s="43"/>
       <c r="B14" s="42" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C14" s="52" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D14" s="42"/>
       <c r="E14" s="42"/>
@@ -8364,10 +8351,10 @@
       <c r="N14" s="42"/>
       <c r="O14" s="43"/>
       <c r="P14" s="42" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="Q14" s="52" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="R14" s="42"/>
       <c r="S14" s="42"/>
@@ -8417,13 +8404,13 @@
       <c r="BK14" s="41"/>
       <c r="BL14" s="41"/>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:64">
       <c r="A15" s="43"/>
       <c r="B15" s="42" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C15" s="52" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D15" s="42"/>
       <c r="E15" s="42"/>
@@ -8438,10 +8425,10 @@
       <c r="N15" s="42"/>
       <c r="O15" s="43"/>
       <c r="P15" s="42" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="Q15" s="52" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="R15" s="42"/>
       <c r="S15" s="42"/>
@@ -8491,13 +8478,13 @@
       <c r="BK15" s="41"/>
       <c r="BL15" s="41"/>
     </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:64">
       <c r="A16" s="43"/>
       <c r="B16" s="44" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C16" s="52" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D16" s="42"/>
       <c r="E16" s="42"/>
@@ -8512,10 +8499,10 @@
       <c r="N16" s="42"/>
       <c r="O16" s="43"/>
       <c r="P16" s="42" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="Q16" s="52" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="R16" s="42"/>
       <c r="S16" s="42"/>
@@ -8565,13 +8552,13 @@
       <c r="BK16" s="41"/>
       <c r="BL16" s="41"/>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28">
       <c r="A17" s="43"/>
       <c r="B17" s="44" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="52" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D17" s="42"/>
       <c r="E17" s="42"/>
@@ -8586,10 +8573,10 @@
       <c r="N17" s="42"/>
       <c r="O17" s="43"/>
       <c r="P17" s="44" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="Q17" s="52" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="R17" s="42"/>
       <c r="S17" s="42"/>
@@ -8603,7 +8590,7 @@
       <c r="AA17" s="42"/>
       <c r="AB17" s="42"/>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28">
       <c r="A18" s="43"/>
       <c r="B18" s="49" t="s">
         <v>15</v>
@@ -8625,7 +8612,7 @@
         <v>33</v>
       </c>
       <c r="Q18" s="52" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="R18" s="42"/>
       <c r="S18" s="42"/>
@@ -8639,7 +8626,7 @@
       <c r="AA18" s="42"/>
       <c r="AB18" s="42"/>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28">
       <c r="A19" s="43"/>
       <c r="B19" s="43"/>
       <c r="C19" s="43"/>
@@ -8671,7 +8658,7 @@
       <c r="AA19" s="42"/>
       <c r="AB19" s="42"/>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28">
       <c r="A20" s="43"/>
       <c r="B20" s="43"/>
       <c r="C20" s="43"/>
@@ -8703,6 +8690,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
     <mergeCell ref="B6:N6"/>
     <mergeCell ref="P6:AB6"/>
     <mergeCell ref="Q9:R9"/>
@@ -8719,12 +8712,6 @@
     <mergeCell ref="P8:P10"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8738,7 +8725,7 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="45" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.75" bestFit="1" customWidth="1"/>
@@ -8796,7 +8783,7 @@
     <col min="70" max="70" width="4.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:70">
       <c r="A1" s="57"/>
       <c r="B1" s="58"/>
       <c r="C1" s="58"/>
@@ -8868,7 +8855,7 @@
       <c r="BQ1" s="51"/>
       <c r="BR1" s="51"/>
     </row>
-    <row r="2" spans="1:70" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:70" ht="19.5">
       <c r="A2" s="59"/>
       <c r="B2" s="60" t="s">
         <v>0</v>
@@ -8942,7 +8929,7 @@
       <c r="BQ2" s="60"/>
       <c r="BR2" s="60"/>
     </row>
-    <row r="3" spans="1:70" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:70" ht="19.5">
       <c r="A3" s="59"/>
       <c r="B3" s="60"/>
       <c r="C3" s="60"/>
@@ -9014,10 +9001,10 @@
       <c r="BQ3" s="60"/>
       <c r="BR3" s="60"/>
     </row>
-    <row r="4" spans="1:70" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:70" ht="19.5">
       <c r="A4" s="59"/>
       <c r="B4" s="60" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C4" s="60"/>
       <c r="D4" s="60"/>
@@ -9088,7 +9075,7 @@
       <c r="BQ4" s="60"/>
       <c r="BR4" s="60"/>
     </row>
-    <row r="5" spans="1:70" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:70" ht="19.5">
       <c r="A5" s="59"/>
       <c r="B5" s="60"/>
       <c r="C5" s="60"/>
@@ -9160,137 +9147,137 @@
       <c r="BQ5" s="60"/>
       <c r="BR5" s="60"/>
     </row>
-    <row r="6" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:70">
       <c r="A6" s="59"/>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="65"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q6" s="65"/>
+      <c r="R6" s="65"/>
+      <c r="S6" s="65"/>
+      <c r="T6" s="65"/>
+      <c r="U6" s="65"/>
+      <c r="V6" s="65"/>
+      <c r="W6" s="65"/>
+      <c r="X6" s="65"/>
+      <c r="Y6" s="65"/>
+      <c r="Z6" s="65"/>
+      <c r="AA6" s="65"/>
+      <c r="AB6" s="65"/>
+      <c r="AC6" s="53"/>
+      <c r="AD6" s="65" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE6" s="65"/>
+      <c r="AF6" s="65"/>
+      <c r="AG6" s="65"/>
+      <c r="AH6" s="65"/>
+      <c r="AI6" s="65"/>
+      <c r="AJ6" s="65"/>
+      <c r="AK6" s="65"/>
+      <c r="AL6" s="65"/>
+      <c r="AM6" s="65"/>
+      <c r="AN6" s="65"/>
+      <c r="AO6" s="65"/>
+      <c r="AP6" s="65"/>
+      <c r="AQ6" s="53"/>
+      <c r="AR6" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS6" s="65"/>
+      <c r="AT6" s="65"/>
+      <c r="AU6" s="65"/>
+      <c r="AV6" s="65"/>
+      <c r="AW6" s="65"/>
+      <c r="AX6" s="65"/>
+      <c r="AY6" s="65"/>
+      <c r="AZ6" s="65"/>
+      <c r="BA6" s="65"/>
+      <c r="BB6" s="65"/>
+      <c r="BC6" s="65"/>
+      <c r="BD6" s="65"/>
+      <c r="BE6" s="51"/>
+      <c r="BF6" s="88" t="s">
+        <v>91</v>
+      </c>
+      <c r="BG6" s="88"/>
+      <c r="BH6" s="88"/>
+      <c r="BI6" s="88"/>
+      <c r="BJ6" s="88"/>
+      <c r="BK6" s="88"/>
+      <c r="BL6" s="88"/>
+      <c r="BM6" s="88"/>
+      <c r="BN6" s="88"/>
+      <c r="BO6" s="88"/>
+      <c r="BP6" s="88"/>
+      <c r="BQ6" s="88"/>
+      <c r="BR6" s="88"/>
+    </row>
+    <row r="7" spans="1:70">
+      <c r="A7" s="59"/>
+      <c r="B7" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="72" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q6" s="72"/>
-      <c r="R6" s="72"/>
-      <c r="S6" s="72"/>
-      <c r="T6" s="72"/>
-      <c r="U6" s="72"/>
-      <c r="V6" s="72"/>
-      <c r="W6" s="72"/>
-      <c r="X6" s="72"/>
-      <c r="Y6" s="72"/>
-      <c r="Z6" s="72"/>
-      <c r="AA6" s="72"/>
-      <c r="AB6" s="72"/>
-      <c r="AC6" s="53"/>
-      <c r="AD6" s="72" t="s">
-        <v>94</v>
-      </c>
-      <c r="AE6" s="72"/>
-      <c r="AF6" s="72"/>
-      <c r="AG6" s="72"/>
-      <c r="AH6" s="72"/>
-      <c r="AI6" s="72"/>
-      <c r="AJ6" s="72"/>
-      <c r="AK6" s="72"/>
-      <c r="AL6" s="72"/>
-      <c r="AM6" s="72"/>
-      <c r="AN6" s="72"/>
-      <c r="AO6" s="72"/>
-      <c r="AP6" s="72"/>
-      <c r="AQ6" s="53"/>
-      <c r="AR6" s="72" t="s">
-        <v>95</v>
-      </c>
-      <c r="AS6" s="72"/>
-      <c r="AT6" s="72"/>
-      <c r="AU6" s="72"/>
-      <c r="AV6" s="72"/>
-      <c r="AW6" s="72"/>
-      <c r="AX6" s="72"/>
-      <c r="AY6" s="72"/>
-      <c r="AZ6" s="72"/>
-      <c r="BA6" s="72"/>
-      <c r="BB6" s="72"/>
-      <c r="BC6" s="72"/>
-      <c r="BD6" s="72"/>
-      <c r="BE6" s="51"/>
-      <c r="BF6" s="87" t="s">
-        <v>96</v>
-      </c>
-      <c r="BG6" s="87"/>
-      <c r="BH6" s="87"/>
-      <c r="BI6" s="87"/>
-      <c r="BJ6" s="87"/>
-      <c r="BK6" s="87"/>
-      <c r="BL6" s="87"/>
-      <c r="BM6" s="87"/>
-      <c r="BN6" s="87"/>
-      <c r="BO6" s="87"/>
-      <c r="BP6" s="87"/>
-      <c r="BQ6" s="87"/>
-      <c r="BR6" s="87"/>
-    </row>
-    <row r="7" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A7" s="59"/>
-      <c r="B7" s="65" t="s">
-        <v>97</v>
-      </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="65"/>
-      <c r="N7" s="65"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
       <c r="O7" s="53"/>
-      <c r="P7" s="65" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q7" s="65"/>
-      <c r="R7" s="65"/>
-      <c r="S7" s="65"/>
-      <c r="T7" s="65"/>
-      <c r="U7" s="65"/>
-      <c r="V7" s="65"/>
-      <c r="W7" s="65"/>
-      <c r="X7" s="65"/>
-      <c r="Y7" s="65"/>
-      <c r="Z7" s="65"/>
-      <c r="AA7" s="65"/>
-      <c r="AB7" s="65"/>
+      <c r="P7" s="70" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q7" s="70"/>
+      <c r="R7" s="70"/>
+      <c r="S7" s="70"/>
+      <c r="T7" s="70"/>
+      <c r="U7" s="70"/>
+      <c r="V7" s="70"/>
+      <c r="W7" s="70"/>
+      <c r="X7" s="70"/>
+      <c r="Y7" s="70"/>
+      <c r="Z7" s="70"/>
+      <c r="AA7" s="70"/>
+      <c r="AB7" s="70"/>
       <c r="AC7" s="53"/>
-      <c r="AD7" s="65" t="s">
-        <v>97</v>
-      </c>
-      <c r="AE7" s="65"/>
-      <c r="AF7" s="65"/>
-      <c r="AG7" s="65"/>
-      <c r="AH7" s="65"/>
-      <c r="AI7" s="65"/>
-      <c r="AJ7" s="65"/>
-      <c r="AK7" s="65"/>
-      <c r="AL7" s="65"/>
-      <c r="AM7" s="65"/>
-      <c r="AN7" s="65"/>
-      <c r="AO7" s="65"/>
-      <c r="AP7" s="65"/>
+      <c r="AD7" s="70" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE7" s="70"/>
+      <c r="AF7" s="70"/>
+      <c r="AG7" s="70"/>
+      <c r="AH7" s="70"/>
+      <c r="AI7" s="70"/>
+      <c r="AJ7" s="70"/>
+      <c r="AK7" s="70"/>
+      <c r="AL7" s="70"/>
+      <c r="AM7" s="70"/>
+      <c r="AN7" s="70"/>
+      <c r="AO7" s="70"/>
+      <c r="AP7" s="70"/>
       <c r="AQ7" s="53"/>
       <c r="AR7" s="85" t="s">
         <v>6</v>
@@ -9309,7 +9296,7 @@
       <c r="BD7" s="85"/>
       <c r="BE7" s="51"/>
       <c r="BF7" s="85" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="BG7" s="85"/>
       <c r="BH7" s="85"/>
@@ -9324,19 +9311,19 @@
       <c r="BQ7" s="85"/>
       <c r="BR7" s="85"/>
     </row>
-    <row r="8" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:70">
       <c r="A8" s="59"/>
-      <c r="B8" s="73" t="s">
-        <v>99</v>
-      </c>
-      <c r="C8" s="76" t="s">
+      <c r="B8" s="77" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
       <c r="I8" s="75" t="s">
         <v>9</v>
       </c>
@@ -9346,17 +9333,17 @@
       <c r="M8" s="75"/>
       <c r="N8" s="75"/>
       <c r="O8" s="53"/>
-      <c r="P8" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q8" s="76" t="s">
+      <c r="P8" s="77" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q8" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="R8" s="77"/>
-      <c r="S8" s="77"/>
-      <c r="T8" s="77"/>
-      <c r="U8" s="77"/>
-      <c r="V8" s="77"/>
+      <c r="R8" s="74"/>
+      <c r="S8" s="74"/>
+      <c r="T8" s="74"/>
+      <c r="U8" s="74"/>
+      <c r="V8" s="74"/>
       <c r="W8" s="75" t="s">
         <v>9</v>
       </c>
@@ -9366,17 +9353,17 @@
       <c r="AA8" s="75"/>
       <c r="AB8" s="75"/>
       <c r="AC8" s="53"/>
-      <c r="AD8" s="73" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE8" s="76" t="s">
+      <c r="AD8" s="77" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE8" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="AF8" s="77"/>
-      <c r="AG8" s="77"/>
-      <c r="AH8" s="77"/>
-      <c r="AI8" s="77"/>
-      <c r="AJ8" s="77"/>
+      <c r="AF8" s="74"/>
+      <c r="AG8" s="74"/>
+      <c r="AH8" s="74"/>
+      <c r="AI8" s="74"/>
+      <c r="AJ8" s="74"/>
       <c r="AK8" s="75" t="s">
         <v>9</v>
       </c>
@@ -9386,28 +9373,28 @@
       <c r="AO8" s="75"/>
       <c r="AP8" s="75"/>
       <c r="AQ8" s="53"/>
-      <c r="AR8" s="88" t="s">
-        <v>102</v>
-      </c>
-      <c r="AS8" s="68" t="s">
+      <c r="AR8" s="86" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS8" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="AT8" s="68"/>
-      <c r="AU8" s="68"/>
-      <c r="AV8" s="68"/>
-      <c r="AW8" s="68"/>
-      <c r="AX8" s="68"/>
-      <c r="AY8" s="68" t="s">
+      <c r="AT8" s="71"/>
+      <c r="AU8" s="71"/>
+      <c r="AV8" s="71"/>
+      <c r="AW8" s="71"/>
+      <c r="AX8" s="71"/>
+      <c r="AY8" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="AZ8" s="68"/>
-      <c r="BA8" s="68"/>
-      <c r="BB8" s="68"/>
-      <c r="BC8" s="68"/>
-      <c r="BD8" s="68"/>
+      <c r="AZ8" s="71"/>
+      <c r="BA8" s="71"/>
+      <c r="BB8" s="71"/>
+      <c r="BC8" s="71"/>
+      <c r="BD8" s="71"/>
       <c r="BE8" s="51"/>
-      <c r="BF8" s="86" t="s">
-        <v>103</v>
+      <c r="BF8" s="87" t="s">
+        <v>98</v>
       </c>
       <c r="BG8" s="75" t="s">
         <v>8</v>
@@ -9426,21 +9413,21 @@
       <c r="BQ8" s="75"/>
       <c r="BR8" s="75"/>
     </row>
-    <row r="9" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:70">
       <c r="A9" s="59"/>
-      <c r="B9" s="74"/>
-      <c r="C9" s="76" t="s">
+      <c r="B9" s="78"/>
+      <c r="C9" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="77"/>
-      <c r="E9" s="76" t="s">
+      <c r="D9" s="74"/>
+      <c r="E9" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="77"/>
-      <c r="G9" s="76" t="s">
+      <c r="F9" s="74"/>
+      <c r="G9" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="78"/>
+      <c r="H9" s="76"/>
       <c r="I9" s="75" t="s">
         <v>13</v>
       </c>
@@ -9454,19 +9441,19 @@
       </c>
       <c r="N9" s="75"/>
       <c r="O9" s="53"/>
-      <c r="P9" s="74"/>
-      <c r="Q9" s="76" t="s">
+      <c r="P9" s="78"/>
+      <c r="Q9" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="R9" s="77"/>
-      <c r="S9" s="76" t="s">
+      <c r="R9" s="74"/>
+      <c r="S9" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="T9" s="77"/>
-      <c r="U9" s="76" t="s">
+      <c r="T9" s="74"/>
+      <c r="U9" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="V9" s="78"/>
+      <c r="V9" s="76"/>
       <c r="W9" s="75" t="s">
         <v>13</v>
       </c>
@@ -9480,19 +9467,19 @@
       </c>
       <c r="AB9" s="75"/>
       <c r="AC9" s="53"/>
-      <c r="AD9" s="74"/>
-      <c r="AE9" s="76" t="s">
+      <c r="AD9" s="78"/>
+      <c r="AE9" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="AF9" s="77"/>
-      <c r="AG9" s="76" t="s">
+      <c r="AF9" s="74"/>
+      <c r="AG9" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="AH9" s="77"/>
-      <c r="AI9" s="76" t="s">
+      <c r="AH9" s="74"/>
+      <c r="AI9" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AJ9" s="78"/>
+      <c r="AJ9" s="76"/>
       <c r="AK9" s="75" t="s">
         <v>13</v>
       </c>
@@ -9506,33 +9493,33 @@
       </c>
       <c r="AP9" s="75"/>
       <c r="AQ9" s="53"/>
-      <c r="AR9" s="88"/>
-      <c r="AS9" s="68" t="s">
+      <c r="AR9" s="86"/>
+      <c r="AS9" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="AT9" s="68"/>
-      <c r="AU9" s="68" t="s">
+      <c r="AT9" s="71"/>
+      <c r="AU9" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="AV9" s="68"/>
-      <c r="AW9" s="68" t="s">
+      <c r="AV9" s="71"/>
+      <c r="AW9" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="AX9" s="68"/>
-      <c r="AY9" s="68" t="s">
+      <c r="AX9" s="71"/>
+      <c r="AY9" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="AZ9" s="68"/>
-      <c r="BA9" s="68" t="s">
+      <c r="AZ9" s="71"/>
+      <c r="BA9" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="BB9" s="68"/>
-      <c r="BC9" s="68" t="s">
+      <c r="BB9" s="71"/>
+      <c r="BC9" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="BD9" s="68"/>
+      <c r="BD9" s="71"/>
       <c r="BE9" s="51"/>
-      <c r="BF9" s="86"/>
+      <c r="BF9" s="87"/>
       <c r="BG9" s="75" t="s">
         <v>13</v>
       </c>
@@ -9558,9 +9545,9 @@
       </c>
       <c r="BR9" s="75"/>
     </row>
-    <row r="10" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:70">
       <c r="A10" s="59"/>
-      <c r="B10" s="74"/>
+      <c r="B10" s="78"/>
       <c r="C10" s="61" t="s">
         <v>50</v>
       </c>
@@ -9598,7 +9585,7 @@
         <v>51</v>
       </c>
       <c r="O10" s="53"/>
-      <c r="P10" s="74"/>
+      <c r="P10" s="78"/>
       <c r="Q10" s="61" t="s">
         <v>50</v>
       </c>
@@ -9636,7 +9623,7 @@
         <v>51</v>
       </c>
       <c r="AC10" s="53"/>
-      <c r="AD10" s="74"/>
+      <c r="AD10" s="78"/>
       <c r="AE10" s="61" t="s">
         <v>50</v>
       </c>
@@ -9674,7 +9661,7 @@
         <v>51</v>
       </c>
       <c r="AQ10" s="53"/>
-      <c r="AR10" s="88"/>
+      <c r="AR10" s="86"/>
       <c r="AS10" s="55" t="s">
         <v>16</v>
       </c>
@@ -9712,7 +9699,7 @@
         <v>17</v>
       </c>
       <c r="BE10" s="51"/>
-      <c r="BF10" s="86"/>
+      <c r="BF10" s="87"/>
       <c r="BG10" s="63" t="s">
         <v>50</v>
       </c>
@@ -9750,13 +9737,13 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:70">
       <c r="A11" s="59"/>
       <c r="B11" s="52" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D11" s="52"/>
       <c r="E11" s="52"/>
@@ -9771,10 +9758,10 @@
       <c r="N11" s="52"/>
       <c r="O11" s="53"/>
       <c r="P11" s="52" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="Q11" s="52" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="R11" s="52"/>
       <c r="S11" s="52"/>
@@ -9789,10 +9776,10 @@
       <c r="AB11" s="52"/>
       <c r="AC11" s="53"/>
       <c r="AD11" s="52" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="AE11" s="52" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="AF11" s="52"/>
       <c r="AG11" s="52"/>
@@ -9807,10 +9794,10 @@
       <c r="AP11" s="52"/>
       <c r="AQ11" s="53"/>
       <c r="AR11" s="52" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="AS11" s="52" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="AT11" s="52"/>
       <c r="AU11" s="52"/>
@@ -9825,10 +9812,10 @@
       <c r="BD11" s="52"/>
       <c r="BE11" s="51"/>
       <c r="BF11" s="52" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="BG11" s="52" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="BH11" s="52"/>
       <c r="BI11" s="52"/>
@@ -9842,13 +9829,13 @@
       <c r="BQ11" s="52"/>
       <c r="BR11" s="52"/>
     </row>
-    <row r="12" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:70">
       <c r="A12" s="59"/>
       <c r="B12" s="52" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C12" s="52" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D12" s="52"/>
       <c r="E12" s="52"/>
@@ -9863,10 +9850,10 @@
       <c r="N12" s="52"/>
       <c r="O12" s="53"/>
       <c r="P12" s="52" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="Q12" s="52" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="R12" s="52"/>
       <c r="S12" s="52"/>
@@ -9881,10 +9868,10 @@
       <c r="AB12" s="52"/>
       <c r="AC12" s="53"/>
       <c r="AD12" s="52" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="AE12" s="52" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="AF12" s="52"/>
       <c r="AG12" s="52"/>
@@ -9899,10 +9886,10 @@
       <c r="AP12" s="52"/>
       <c r="AQ12" s="53"/>
       <c r="AR12" s="52" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="AS12" s="52" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="AT12" s="52"/>
       <c r="AU12" s="52"/>
@@ -9930,7 +9917,7 @@
       <c r="BQ12" s="51"/>
       <c r="BR12" s="51"/>
     </row>
-    <row r="13" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:70">
       <c r="A13" s="59"/>
       <c r="B13" s="56" t="s">
         <v>15</v>
@@ -9949,10 +9936,10 @@
       <c r="N13" s="52"/>
       <c r="O13" s="53"/>
       <c r="P13" s="52" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="Q13" s="52" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="R13" s="52"/>
       <c r="S13" s="52"/>
@@ -9967,10 +9954,10 @@
       <c r="AB13" s="52"/>
       <c r="AC13" s="53"/>
       <c r="AD13" s="52" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="AE13" s="52" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="AF13" s="52"/>
       <c r="AG13" s="52"/>
@@ -10014,7 +10001,7 @@
       <c r="BQ13" s="51"/>
       <c r="BR13" s="51"/>
     </row>
-    <row r="14" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:70">
       <c r="A14" s="59"/>
       <c r="B14" s="53"/>
       <c r="C14" s="53"/>
@@ -10031,10 +10018,10 @@
       <c r="N14" s="53"/>
       <c r="O14" s="53"/>
       <c r="P14" s="52" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="Q14" s="52" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="R14" s="52"/>
       <c r="S14" s="52"/>
@@ -10049,10 +10036,10 @@
       <c r="AB14" s="52"/>
       <c r="AC14" s="53"/>
       <c r="AD14" s="52" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="AE14" s="52" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AF14" s="52"/>
       <c r="AG14" s="52"/>
@@ -10094,7 +10081,7 @@
       <c r="BQ14" s="51"/>
       <c r="BR14" s="51"/>
     </row>
-    <row r="15" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:70">
       <c r="A15" s="59"/>
       <c r="B15" s="53"/>
       <c r="C15" s="53"/>
@@ -10111,10 +10098,10 @@
       <c r="N15" s="53"/>
       <c r="O15" s="53"/>
       <c r="P15" s="52" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="Q15" s="52" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="R15" s="52"/>
       <c r="S15" s="52"/>
@@ -10129,10 +10116,10 @@
       <c r="AB15" s="52"/>
       <c r="AC15" s="53"/>
       <c r="AD15" s="52" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="AE15" s="52" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="AF15" s="52"/>
       <c r="AG15" s="52"/>
@@ -10174,7 +10161,7 @@
       <c r="BQ15" s="51"/>
       <c r="BR15" s="51"/>
     </row>
-    <row r="16" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:70">
       <c r="A16" s="59"/>
       <c r="B16" s="53"/>
       <c r="C16" s="53"/>
@@ -10191,10 +10178,10 @@
       <c r="N16" s="53"/>
       <c r="O16" s="53"/>
       <c r="P16" s="52" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="52" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="R16" s="52"/>
       <c r="S16" s="52"/>
@@ -10209,10 +10196,10 @@
       <c r="AB16" s="52"/>
       <c r="AC16" s="53"/>
       <c r="AD16" s="52" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="AE16" s="52" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="AF16" s="52"/>
       <c r="AG16" s="52"/>
@@ -10254,7 +10241,7 @@
       <c r="BQ16" s="51"/>
       <c r="BR16" s="51"/>
     </row>
-    <row r="17" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:61">
       <c r="A17" s="59"/>
       <c r="B17" s="53"/>
       <c r="C17" s="53"/>
@@ -10271,10 +10258,10 @@
       <c r="N17" s="53"/>
       <c r="O17" s="53"/>
       <c r="P17" s="52" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="Q17" s="52" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="R17" s="52"/>
       <c r="S17" s="52"/>
@@ -10289,10 +10276,10 @@
       <c r="AB17" s="52"/>
       <c r="AC17" s="53"/>
       <c r="AD17" s="52" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="AE17" s="52" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="AF17" s="52"/>
       <c r="AG17" s="52"/>
@@ -10325,7 +10312,7 @@
       <c r="BH17" s="51"/>
       <c r="BI17" s="51"/>
     </row>
-    <row r="18" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:61">
       <c r="A18" s="59"/>
       <c r="B18" s="53"/>
       <c r="C18" s="53"/>
@@ -10345,7 +10332,7 @@
         <v>33</v>
       </c>
       <c r="Q18" s="52" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="R18" s="52"/>
       <c r="S18" s="52"/>
@@ -10360,10 +10347,10 @@
       <c r="AB18" s="52"/>
       <c r="AC18" s="53"/>
       <c r="AD18" s="52" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="AE18" s="52" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="AF18" s="52"/>
       <c r="AG18" s="52"/>
@@ -10396,7 +10383,7 @@
       <c r="BH18" s="51"/>
       <c r="BI18" s="51"/>
     </row>
-    <row r="19" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:61">
       <c r="A19" s="59"/>
       <c r="B19" s="53"/>
       <c r="C19" s="53"/>
@@ -10429,10 +10416,10 @@
       <c r="AB19" s="52"/>
       <c r="AC19" s="53"/>
       <c r="AD19" s="54" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AE19" s="52" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="AF19" s="52"/>
       <c r="AG19" s="52"/>
@@ -10465,7 +10452,7 @@
       <c r="BH19" s="51"/>
       <c r="BI19" s="51"/>
     </row>
-    <row r="20" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:61">
       <c r="A20" s="59"/>
       <c r="B20" s="53"/>
       <c r="C20" s="53"/>
@@ -10496,10 +10483,10 @@
       <c r="AB20" s="53"/>
       <c r="AC20" s="53"/>
       <c r="AD20" s="54" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="AE20" s="52" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="AF20" s="52"/>
       <c r="AG20" s="52"/>
@@ -10532,7 +10519,7 @@
       <c r="BH20" s="51"/>
       <c r="BI20" s="51"/>
     </row>
-    <row r="21" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:61">
       <c r="A21" s="59"/>
       <c r="B21" s="53"/>
       <c r="C21" s="53"/>
@@ -10563,10 +10550,10 @@
       <c r="AB21" s="53"/>
       <c r="AC21" s="53"/>
       <c r="AD21" s="54" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="AE21" s="52" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="AF21" s="52"/>
       <c r="AG21" s="52"/>
@@ -10599,7 +10586,7 @@
       <c r="BH21" s="51"/>
       <c r="BI21" s="51"/>
     </row>
-    <row r="22" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:61">
       <c r="A22" s="59"/>
       <c r="B22" s="53"/>
       <c r="C22" s="53"/>
@@ -10630,10 +10617,10 @@
       <c r="AB22" s="53"/>
       <c r="AC22" s="53"/>
       <c r="AD22" s="54" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="AE22" s="52" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="AF22" s="52"/>
       <c r="AG22" s="52"/>
@@ -10666,7 +10653,7 @@
       <c r="BH22" s="51"/>
       <c r="BI22" s="51"/>
     </row>
-    <row r="23" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:61">
       <c r="A23" s="59"/>
       <c r="B23" s="53"/>
       <c r="C23" s="53"/>
@@ -10697,10 +10684,10 @@
       <c r="AB23" s="53"/>
       <c r="AC23" s="53"/>
       <c r="AD23" s="54" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="AE23" s="52" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="AF23" s="52"/>
       <c r="AG23" s="52"/>
@@ -10733,7 +10720,7 @@
       <c r="BH23" s="51"/>
       <c r="BI23" s="51"/>
     </row>
-    <row r="24" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:61">
       <c r="A24" s="59"/>
       <c r="B24" s="53"/>
       <c r="C24" s="53"/>
@@ -10767,7 +10754,7 @@
         <v>33</v>
       </c>
       <c r="AE24" s="52" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="AF24" s="52"/>
       <c r="AG24" s="52"/>
@@ -10800,7 +10787,7 @@
       <c r="BH24" s="51"/>
       <c r="BI24" s="51"/>
     </row>
-    <row r="25" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:61">
       <c r="A25" s="59"/>
       <c r="B25" s="53"/>
       <c r="C25" s="53"/>
@@ -10865,7 +10852,7 @@
       <c r="BH25" s="51"/>
       <c r="BI25" s="51"/>
     </row>
-    <row r="26" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:61">
       <c r="A26" s="53"/>
       <c r="B26" s="53"/>
       <c r="C26" s="53"/>
@@ -10928,7 +10915,7 @@
       <c r="BH26" s="51"/>
       <c r="BI26" s="51"/>
     </row>
-    <row r="27" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:61">
       <c r="A27" s="53"/>
       <c r="B27" s="53"/>
       <c r="C27" s="53"/>
@@ -10993,6 +10980,46 @@
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="BF8:BF10"/>
+    <mergeCell ref="BF6:BR6"/>
+    <mergeCell ref="BF7:BR7"/>
+    <mergeCell ref="BG8:BL8"/>
+    <mergeCell ref="BM8:BR8"/>
+    <mergeCell ref="BG9:BH9"/>
+    <mergeCell ref="BI9:BJ9"/>
+    <mergeCell ref="BK9:BL9"/>
+    <mergeCell ref="BM9:BN9"/>
+    <mergeCell ref="BO9:BP9"/>
+    <mergeCell ref="BQ9:BR9"/>
+    <mergeCell ref="AY8:BD8"/>
+    <mergeCell ref="AY9:AZ9"/>
+    <mergeCell ref="BA9:BB9"/>
+    <mergeCell ref="BC9:BD9"/>
+    <mergeCell ref="AR6:BD6"/>
+    <mergeCell ref="AR7:BD7"/>
+    <mergeCell ref="AR8:AR10"/>
+    <mergeCell ref="AS9:AT9"/>
+    <mergeCell ref="AU9:AV9"/>
+    <mergeCell ref="AW9:AX9"/>
+    <mergeCell ref="AS8:AX8"/>
+    <mergeCell ref="B6:N6"/>
+    <mergeCell ref="P6:AB6"/>
+    <mergeCell ref="AD6:AP6"/>
+    <mergeCell ref="AK8:AP8"/>
+    <mergeCell ref="I8:N8"/>
+    <mergeCell ref="AO9:AP9"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="P7:AB7"/>
+    <mergeCell ref="AE8:AJ8"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="AM9:AN9"/>
+    <mergeCell ref="AD7:AP7"/>
     <mergeCell ref="M9:N9"/>
     <mergeCell ref="AD8:AD10"/>
     <mergeCell ref="B8:B10"/>
@@ -11008,46 +11035,6 @@
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="K9:L9"/>
-    <mergeCell ref="AO9:AP9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="P7:AB7"/>
-    <mergeCell ref="AE8:AJ8"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="AM9:AN9"/>
-    <mergeCell ref="AD7:AP7"/>
-    <mergeCell ref="B6:N6"/>
-    <mergeCell ref="P6:AB6"/>
-    <mergeCell ref="AD6:AP6"/>
-    <mergeCell ref="AK8:AP8"/>
-    <mergeCell ref="I8:N8"/>
-    <mergeCell ref="AY8:BD8"/>
-    <mergeCell ref="AY9:AZ9"/>
-    <mergeCell ref="BA9:BB9"/>
-    <mergeCell ref="BC9:BD9"/>
-    <mergeCell ref="AR6:BD6"/>
-    <mergeCell ref="AR7:BD7"/>
-    <mergeCell ref="AR8:AR10"/>
-    <mergeCell ref="AS9:AT9"/>
-    <mergeCell ref="AU9:AV9"/>
-    <mergeCell ref="AW9:AX9"/>
-    <mergeCell ref="AS8:AX8"/>
-    <mergeCell ref="BF8:BF10"/>
-    <mergeCell ref="BF6:BR6"/>
-    <mergeCell ref="BF7:BR7"/>
-    <mergeCell ref="BG8:BL8"/>
-    <mergeCell ref="BM8:BR8"/>
-    <mergeCell ref="BG9:BH9"/>
-    <mergeCell ref="BI9:BJ9"/>
-    <mergeCell ref="BK9:BL9"/>
-    <mergeCell ref="BM9:BN9"/>
-    <mergeCell ref="BO9:BP9"/>
-    <mergeCell ref="BQ9:BR9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
